--- a/STAR_model/Book1 (Autosaved).xlsx
+++ b/STAR_model/Book1 (Autosaved).xlsx
@@ -19,6 +19,7 @@
     <sheet name="Sheet8" sheetId="8" r:id="rId5"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'R2_arcs'!$A$1:$K$449</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet1 (2)'!$A$1:$M$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Sheet8!$A$1:$G$2000</definedName>
   </definedNames>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8255" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8256" uniqueCount="635">
   <si>
     <t>mean</t>
   </si>
@@ -1935,6 +1936,9 @@
   <si>
     <t>1),(1,</t>
   </si>
+  <si>
+    <t>y_a_t_1</t>
+  </si>
 </sst>
 </file>
 
@@ -2059,1349 +2063,17 @@
               <c:f>'R2_arcs'!$J$2:$J$450</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="449"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.113937401308318</c:v>
+                  <c:v>0.22057568558833501</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.115138701334147</c:v>
+                  <c:v>5.0444486442229902E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.4613922509982899E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.8077320469345504E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.192546680447373</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.51754948674235E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.2923432640518099E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.156194641127606</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3.7255004541081597E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.13761231403951199</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.270965690334104</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.89018211993086E-2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2.0968569327597698E-2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.405299571671211</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.221061557241643</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.35225163275372401</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2.3590369978092801E-2</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2.5518440027932202E-2</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.14625149963985201</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.15757858086922499</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>2.83036122012125E-2</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.55435591484227398</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.72951976326748103</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.10229564986187201</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.146242819210647</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.74680174590361403</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.61177930543696302</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1.4157936347740201E-2</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>5.07756323295077E-2</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>9.1885035391800998E-2</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.57167713523074704</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>7.4381895498300293E-2</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.19215613117928099</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.419815534938006</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.52713980669472804</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>9.4302806202788803E-2</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.189742510492688</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>-3.4739727248363099E-2</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>1.8451283593428701E-2</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.53113879098188399</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>4.0624036452459801E-2</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>6.4508389733493904E-2</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>4.6050926951135898E-2</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.17449543456844399</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>5.9417811404887E-2</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>7.62244236669192E-2</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>8.7471961103504303E-2</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>1.5062780251906801E-2</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0.511148608104942</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>0.276608169835246</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>0.230333569153648</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>0.31892214077901199</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>0.27964647233595102</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>3.3780969263976703E-2</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>3.8152246668341099E-2</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>2.3433197745494599E-2</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>1.44362027126712E-2</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>7.9645377640584603E-2</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>0.11548475508413</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>0.11994635926394399</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>9.6759727182762101E-2</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>8.2411356233330606E-3</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>0.42320666655246097</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>2.42399854670367E-2</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>4.0930649909654997E-2</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>8.5383774647794897E-2</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>5.70176727899218E-3</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>3.23056451040186E-2</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>0.59530353040542805</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>0.399300447054383</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>0.53596117911791796</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>0.44298110633479598</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>0.428124018154665</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>0.29868866768374602</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>1.44594271149137E-2</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>2.7228517089530301E-2</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>3.91377454210627E-2</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>6.0834132727898199E-2</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>2.3945340333289499E-2</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>2.6295123692067102E-2</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>0.35538447577486298</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>4.2993955769177099E-3</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>1.7634171471871501E-2</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>3.8798359601999698E-2</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>6.8630130727920097E-2</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>8.3146077433826696E-2</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>0.179387396622191</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>5.91336116940138E-2</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>3.45448880841287E-2</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>0.27790122744379903</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>0.12926053719425701</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>0.19304910441165299</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>0.37011084124326099</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>0.22854108488345001</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>0.20652299642499899</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>0.23279743210531301</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>2.80530676094779E-2</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>0.12846419526780301</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>4.32729124223694E-2</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>0.22057568558833501</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>2.7556618557052399E-2</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>0.124840939306031</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>5.4709522964450703E-2</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>0.598076733641834</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>0.71044194252590898</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>5.1051826013200602E-2</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>3.6565229651478397E-2</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>0.115910598771855</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>0.61810274196374304</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>5.90572709828103E-2</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>0.156022101103405</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>6.2987380314322203E-2</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>0.59834640018690599</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>0.13226154387321301</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>0.43732975265339902</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>0.115845129065632</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>0.67023036321612095</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>9.7657336460815994E-2</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>1.2430137003962101E-2</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>5.6248938782669899E-2</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>5.0444486442229902E-2</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>6.7369383179504402E-2</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>1.2762913256844401E-2</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>0.10671463516841601</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>-2.18621165808641E-3</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>0.124942879379039</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>0.111102329083133</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>0.143355787582953</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>0.20133666232588801</c:v>
-                </c:pt>
-                <c:pt idx="265">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="266">
-                  <c:v>0.11654261680141501</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>0.10123278802055399</c:v>
-                </c:pt>
-                <c:pt idx="269">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="270">
-                  <c:v>3.21345162426784E-2</c:v>
-                </c:pt>
-                <c:pt idx="271">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="272">
-                  <c:v>6.8675630570060403E-2</c:v>
-                </c:pt>
-                <c:pt idx="273">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="274">
-                  <c:v>0.50897900683009101</c:v>
-                </c:pt>
-                <c:pt idx="275">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="276">
-                  <c:v>3.31511118869817E-2</c:v>
-                </c:pt>
-                <c:pt idx="277">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="278">
-                  <c:v>0.44690161322761401</c:v>
-                </c:pt>
-                <c:pt idx="279">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="280">
-                  <c:v>6.1234009929905998E-2</c:v>
-                </c:pt>
-                <c:pt idx="281">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="282">
-                  <c:v>0.13982047639779799</c:v>
-                </c:pt>
-                <c:pt idx="283">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="284">
-                  <c:v>0.38864640289124402</c:v>
-                </c:pt>
-                <c:pt idx="285">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="286">
-                  <c:v>5.4298055014617999E-2</c:v>
-                </c:pt>
-                <c:pt idx="287">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="288">
-                  <c:v>0.24069074805164101</c:v>
-                </c:pt>
-                <c:pt idx="289">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="290">
-                  <c:v>2.8375705522022E-2</c:v>
-                </c:pt>
-                <c:pt idx="291">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="292">
-                  <c:v>9.0989031316698298E-3</c:v>
-                </c:pt>
-                <c:pt idx="293">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="294">
-                  <c:v>8.9729836656034595E-2</c:v>
-                </c:pt>
-                <c:pt idx="295">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="296">
-                  <c:v>0.124081282596916</c:v>
-                </c:pt>
-                <c:pt idx="297">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="298">
-                  <c:v>0.71615747028055299</c:v>
-                </c:pt>
-                <c:pt idx="299">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="300">
-                  <c:v>0.15862572861826699</c:v>
-                </c:pt>
-                <c:pt idx="301">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="302">
-                  <c:v>0.67929082133628305</c:v>
-                </c:pt>
-                <c:pt idx="303">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="304">
-                  <c:v>4.8184283658033601E-2</c:v>
-                </c:pt>
-                <c:pt idx="305">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="306">
-                  <c:v>1.7364404971537101E-2</c:v>
-                </c:pt>
-                <c:pt idx="307">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="308">
-                  <c:v>1.3028019229993901E-2</c:v>
-                </c:pt>
-                <c:pt idx="309">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="310">
-                  <c:v>9.08125926890474E-2</c:v>
-                </c:pt>
-                <c:pt idx="311">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="312">
-                  <c:v>0.49235339822682</c:v>
-                </c:pt>
-                <c:pt idx="313">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="314">
-                  <c:v>2.2937578302057601E-2</c:v>
-                </c:pt>
-                <c:pt idx="315">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="316">
-                  <c:v>0.409542461402575</c:v>
-                </c:pt>
-                <c:pt idx="317">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="318">
-                  <c:v>1.9655134879903599E-2</c:v>
-                </c:pt>
-                <c:pt idx="319">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="320">
-                  <c:v>8.1944291147727E-2</c:v>
-                </c:pt>
-                <c:pt idx="321">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="322">
-                  <c:v>0.105043570759837</c:v>
-                </c:pt>
-                <c:pt idx="323">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="324">
-                  <c:v>0.65645457972556098</c:v>
-                </c:pt>
-                <c:pt idx="325">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="326">
-                  <c:v>2.6000551778142599E-2</c:v>
-                </c:pt>
-                <c:pt idx="327">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="328">
-                  <c:v>-1.8351692123186301E-4</c:v>
-                </c:pt>
-                <c:pt idx="329">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="330">
-                  <c:v>7.7541414477092105E-2</c:v>
-                </c:pt>
-                <c:pt idx="331">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="332">
-                  <c:v>0.15245532864508399</c:v>
-                </c:pt>
-                <c:pt idx="333">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="334">
-                  <c:v>2.0724253448902E-2</c:v>
-                </c:pt>
-                <c:pt idx="335">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="336">
-                  <c:v>0.20924300627787501</c:v>
-                </c:pt>
-                <c:pt idx="337">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="338">
-                  <c:v>0.14361800154642501</c:v>
-                </c:pt>
-                <c:pt idx="339">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="340">
-                  <c:v>3.5963974451986402E-2</c:v>
-                </c:pt>
-                <c:pt idx="341">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="342">
-                  <c:v>8.1747068073672297E-2</c:v>
-                </c:pt>
-                <c:pt idx="343">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="344">
-                  <c:v>0.75484641438043498</c:v>
-                </c:pt>
-                <c:pt idx="345">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="346">
-                  <c:v>6.1994370816568202E-2</c:v>
-                </c:pt>
-                <c:pt idx="347">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="348">
-                  <c:v>0.101495159742543</c:v>
-                </c:pt>
-                <c:pt idx="349">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="350">
-                  <c:v>7.7341396311195701E-2</c:v>
-                </c:pt>
-                <c:pt idx="351">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="352">
-                  <c:v>0.16063694296582001</c:v>
-                </c:pt>
-                <c:pt idx="353">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="354">
-                  <c:v>0.33646178561443302</c:v>
-                </c:pt>
-                <c:pt idx="355">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="356">
-                  <c:v>8.7914711578274907E-2</c:v>
-                </c:pt>
-                <c:pt idx="357">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="358">
-                  <c:v>3.8995685779146999E-2</c:v>
-                </c:pt>
-                <c:pt idx="359">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="360">
-                  <c:v>1.55811962075964E-2</c:v>
-                </c:pt>
-                <c:pt idx="361">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="362">
-                  <c:v>0.180568398850252</c:v>
-                </c:pt>
-                <c:pt idx="363">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="364">
-                  <c:v>4.7351339427058603E-3</c:v>
-                </c:pt>
-                <c:pt idx="365">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="366">
-                  <c:v>6.3213711547474294E-2</c:v>
-                </c:pt>
-                <c:pt idx="367">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="368">
-                  <c:v>0.66032112870384596</c:v>
-                </c:pt>
-                <c:pt idx="369">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="370">
-                  <c:v>5.9913836582098701E-2</c:v>
-                </c:pt>
-                <c:pt idx="371">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="372">
-                  <c:v>4.0469221044295997E-2</c:v>
-                </c:pt>
-                <c:pt idx="373">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="374">
-                  <c:v>0.74058425066250799</c:v>
-                </c:pt>
-                <c:pt idx="375">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="376">
-                  <c:v>8.7110781306506097E-2</c:v>
-                </c:pt>
-                <c:pt idx="377">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="378">
-                  <c:v>1.70655609628752E-2</c:v>
-                </c:pt>
-                <c:pt idx="379">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="380">
-                  <c:v>9.1645983499703806E-2</c:v>
-                </c:pt>
-                <c:pt idx="381">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="382">
-                  <c:v>0.11700142082189501</c:v>
-                </c:pt>
-                <c:pt idx="383">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="384">
-                  <c:v>2.5627198479226E-2</c:v>
-                </c:pt>
-                <c:pt idx="385">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="386">
-                  <c:v>0.35093643276238901</c:v>
-                </c:pt>
-                <c:pt idx="387">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="388">
-                  <c:v>1.8396964289470599E-2</c:v>
-                </c:pt>
-                <c:pt idx="389">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="390">
-                  <c:v>0.24106399433602699</c:v>
-                </c:pt>
-                <c:pt idx="391">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="392">
-                  <c:v>5.1946857930228102E-2</c:v>
-                </c:pt>
-                <c:pt idx="393">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="394">
-                  <c:v>0.283419319591386</c:v>
-                </c:pt>
-                <c:pt idx="395">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="396">
-                  <c:v>3.4021489681474601E-2</c:v>
-                </c:pt>
-                <c:pt idx="397">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="398">
-                  <c:v>0.21244757928652</c:v>
-                </c:pt>
-                <c:pt idx="399">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="400">
-                  <c:v>6.2468311125492698E-2</c:v>
-                </c:pt>
-                <c:pt idx="401">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="402">
-                  <c:v>0.119957500613534</c:v>
-                </c:pt>
-                <c:pt idx="403">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="404">
-                  <c:v>0.73511162658190798</c:v>
-                </c:pt>
-                <c:pt idx="405">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="406">
-                  <c:v>0.49656430372174698</c:v>
-                </c:pt>
-                <c:pt idx="407">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="408">
-                  <c:v>0.31108089789121501</c:v>
-                </c:pt>
-                <c:pt idx="409">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="410">
-                  <c:v>3.6925852397192697E-2</c:v>
-                </c:pt>
-                <c:pt idx="411">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="412">
-                  <c:v>1.2331501756469999E-2</c:v>
-                </c:pt>
-                <c:pt idx="413">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="414">
-                  <c:v>0.62522400268294898</c:v>
-                </c:pt>
-                <c:pt idx="415">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="416">
-                  <c:v>9.9873110692021497E-2</c:v>
-                </c:pt>
-                <c:pt idx="417">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="418">
-                  <c:v>9.4017410479400196E-2</c:v>
-                </c:pt>
-                <c:pt idx="419">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="420">
-                  <c:v>0.13040233916048999</c:v>
-                </c:pt>
-                <c:pt idx="421">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="422">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="423">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="424">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="425">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="426">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="427">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="428">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="429">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="430">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="431">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="432">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="433">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="434">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="435">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="436">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="437">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="438">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="439">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="440">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="441">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="442">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="443">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="444">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="445">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="446">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="447">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3450,1350 +2122,18 @@
               <c:f>'R2_arcs'!$K$2:$K$450</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="449"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.4217104882607294E-2</c:v>
+                  <c:v>0.23909198639231699</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0419935593456393E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.7599436389759901E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.3226261666723797E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.162800795236799</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6.7392801746103001E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.4347672842669298E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.130112413335083</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>5.5344320301279198E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.125377509977392</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.27907488491931898</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>8.9590618226073008E-3</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>9.4314253453454608E-3</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.39567705625388899</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.22735427981200099</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.35809717840654898</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1.50271463351913E-2</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>4.6680428314570199E-2</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.154931500077365</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.15292078105972901</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1.32834884305921E-2</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.55128144411534796</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.72010090270087901</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.102192737733484</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.12704565173565399</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.73076049381561503</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.58005984774991703</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>2.82638038179106E-3</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>5.1405143430748201E-2</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>7.5257193881482595E-2</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.56452431983873796</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>7.6983163411634595E-2</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.18723201002034101</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.40632411659558798</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.53922655720094403</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>8.8974500975424503E-2</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.18153484679557799</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>-2.2663900837771301E-2</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>1.8781077162904201E-2</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.52474856409121295</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>5.3642453979674598E-2</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>6.5995294602781696E-2</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>5.5313230297753098E-2</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.14430177719083601</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>4.3436686946944802E-2</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>6.6662857332200703E-2</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>6.82577907287365E-2</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>6.6437542512227596E-3</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.51298296615665695</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>0.25018210637175198</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>0.219086689806756</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>0.336865197327056</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>0.29112752146336601</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>2.88905658615429E-2</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>3.4213246894859897E-2</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>2.1291493452597499E-2</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>1.62827168030346E-2</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>3.70665103991124E-2</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>0.10609021112108</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>0.13096449396217</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>0.11474008893764</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>1.44874879448203E-2</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>0.416027103939138</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>1.6783241797977098E-2</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>5.1792668112842499E-2</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>9.8400096349725102E-2</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>3.3080785145229701E-3</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>1.7102637677398801E-2</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>0.58798492378849398</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>0.39987859793346597</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>0.55838560369967105</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>0.43028429512844102</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>0.41842340341522499</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>0.30926333217565799</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>5.48176435983227E-3</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>3.04480479664237E-2</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>4.1765791906158797E-2</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>7.5620372217818393E-2</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>3.5186627898693999E-2</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>2.6849628799169099E-2</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>0.355941553279425</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>-2.5680819914275499E-4</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>2.6240202684572701E-2</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>4.0963546984831699E-2</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>6.2759110242531002E-2</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>6.4999012021411104E-2</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>0.18653785671464901</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>7.1986655582303202E-2</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>3.8682633333333598E-2</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>0.28680073810968898</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>0.110678278964163</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>0.188420466308547</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>0.38515594984394502</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>0.211473049388856</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>0.23534911820118801</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>0.21380080881182301</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>1.07306569001925E-2</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>0.15036803508378199</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>3.6988843181743503E-2</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>0.23909198639231699</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>3.0992665161142501E-2</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>0.130026530649588</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>5.1530792268256902E-2</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>0.57149312993527801</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>0.70533864010587</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>4.68749700076748E-2</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>2.7123883002756002E-2</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>0.1071652582</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>0.61153601932037305</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>4.3099879226907001E-2</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>0.11765659582571</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>5.2474628107678598E-2</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>0.59978934427637398</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>0.16893761177698399</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>0.45653065194964898</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>8.6365322361737398E-2</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>0.65899250476194204</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>7.3751994890095304E-2</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>8.8617630880681794E-3</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>5.5515952844511697E-2</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>-1.7099863201064299E-4</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="249">
                   <c:v>4.2188844065325297E-2</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>6.6592991379887306E-2</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>2.0317865311469001E-2</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>9.3884916837162602E-2</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>-1.15858580100325E-3</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>0.123942465209907</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>0.113529067792527</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>0.10637966646892701</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="265">
-                  <c:v>0.17774508885633999</c:v>
-                </c:pt>
-                <c:pt idx="266">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>9.4199403423891201E-2</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="269">
-                  <c:v>0.10948156274791</c:v>
-                </c:pt>
-                <c:pt idx="270">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="271">
-                  <c:v>3.2244823452726702E-2</c:v>
-                </c:pt>
-                <c:pt idx="272">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="273">
-                  <c:v>4.9986709328073899E-2</c:v>
-                </c:pt>
-                <c:pt idx="274">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="275">
-                  <c:v>0.52177507396368705</c:v>
-                </c:pt>
-                <c:pt idx="276">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="277">
-                  <c:v>1.9229471291460999E-2</c:v>
-                </c:pt>
-                <c:pt idx="278">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="279">
-                  <c:v>0.44525370559726901</c:v>
-                </c:pt>
-                <c:pt idx="280">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="281">
-                  <c:v>6.3098186519781801E-2</c:v>
-                </c:pt>
-                <c:pt idx="282">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="283">
-                  <c:v>0.15796651878130999</c:v>
-                </c:pt>
-                <c:pt idx="284">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="285">
-                  <c:v>0.371092366993859</c:v>
-                </c:pt>
-                <c:pt idx="286">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="287">
-                  <c:v>5.8596298502659003E-2</c:v>
-                </c:pt>
-                <c:pt idx="288">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="289">
-                  <c:v>0.205364056456941</c:v>
-                </c:pt>
-                <c:pt idx="290">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="291">
-                  <c:v>2.1930018015920299E-2</c:v>
-                </c:pt>
-                <c:pt idx="292">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="293">
-                  <c:v>8.3364020607327102E-3</c:v>
-                </c:pt>
-                <c:pt idx="294">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="295">
-                  <c:v>8.0115448954193202E-2</c:v>
-                </c:pt>
-                <c:pt idx="296">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="297">
-                  <c:v>0.13275643253366601</c:v>
-                </c:pt>
-                <c:pt idx="298">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="299">
-                  <c:v>0.69001096410876195</c:v>
-                </c:pt>
-                <c:pt idx="300">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="301">
-                  <c:v>0.166208864653697</c:v>
-                </c:pt>
-                <c:pt idx="302">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="303">
-                  <c:v>0.67661330354522797</c:v>
-                </c:pt>
-                <c:pt idx="304">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="305">
-                  <c:v>5.0588160588401702E-2</c:v>
-                </c:pt>
-                <c:pt idx="306">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="307">
-                  <c:v>2.16531439841601E-2</c:v>
-                </c:pt>
-                <c:pt idx="308">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="309">
-                  <c:v>1.5858144408732401E-3</c:v>
-                </c:pt>
-                <c:pt idx="310">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="311">
-                  <c:v>7.8831570908862503E-2</c:v>
-                </c:pt>
-                <c:pt idx="312">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="313">
-                  <c:v>0.51881491097064603</c:v>
-                </c:pt>
-                <c:pt idx="314">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="315">
-                  <c:v>1.15308143563913E-2</c:v>
-                </c:pt>
-                <c:pt idx="316">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="317">
-                  <c:v>0.43771448368660698</c:v>
-                </c:pt>
-                <c:pt idx="318">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="319">
-                  <c:v>1.8954500525621198E-2</c:v>
-                </c:pt>
-                <c:pt idx="320">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="321">
-                  <c:v>7.4083236229407406E-2</c:v>
-                </c:pt>
-                <c:pt idx="322">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="323">
-                  <c:v>0.108631090986502</c:v>
-                </c:pt>
-                <c:pt idx="324">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="325">
-                  <c:v>0.68167038704932104</c:v>
-                </c:pt>
-                <c:pt idx="326">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="327">
-                  <c:v>1.1521118551088901E-2</c:v>
-                </c:pt>
-                <c:pt idx="328">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="329">
-                  <c:v>5.3155631462331598E-4</c:v>
-                </c:pt>
-                <c:pt idx="330">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="331">
-                  <c:v>7.1610149383338803E-2</c:v>
-                </c:pt>
-                <c:pt idx="332">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="333">
-                  <c:v>0.128880627979644</c:v>
-                </c:pt>
-                <c:pt idx="334">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="335">
-                  <c:v>2.4171206080082198E-2</c:v>
-                </c:pt>
-                <c:pt idx="336">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="337">
-                  <c:v>0.184882821131896</c:v>
-                </c:pt>
-                <c:pt idx="338">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="339">
-                  <c:v>0.130491807883063</c:v>
-                </c:pt>
-                <c:pt idx="340">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="341">
-                  <c:v>3.6297424415627402E-2</c:v>
-                </c:pt>
-                <c:pt idx="342">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="343">
-                  <c:v>8.1685409893697797E-2</c:v>
-                </c:pt>
-                <c:pt idx="344">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="345">
-                  <c:v>0.75155006301221505</c:v>
-                </c:pt>
-                <c:pt idx="346">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="347">
-                  <c:v>-3.1680780044101201E-2</c:v>
-                </c:pt>
-                <c:pt idx="348">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="349">
-                  <c:v>8.1523655507217005E-2</c:v>
-                </c:pt>
-                <c:pt idx="350">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="351">
-                  <c:v>9.3750770151155793E-2</c:v>
-                </c:pt>
-                <c:pt idx="352">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="353">
-                  <c:v>0.13354317291930101</c:v>
-                </c:pt>
-                <c:pt idx="354">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="355">
-                  <c:v>0.35427599265896997</c:v>
-                </c:pt>
-                <c:pt idx="356">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="357">
-                  <c:v>8.9359223606093496E-2</c:v>
-                </c:pt>
-                <c:pt idx="358">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="359">
-                  <c:v>3.4794722276591097E-2</c:v>
-                </c:pt>
-                <c:pt idx="360">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="361">
-                  <c:v>2.18353269949315E-2</c:v>
-                </c:pt>
-                <c:pt idx="362">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="363">
-                  <c:v>0.14652791223922301</c:v>
-                </c:pt>
-                <c:pt idx="364">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="365">
-                  <c:v>-4.8360876389221801E-3</c:v>
-                </c:pt>
-                <c:pt idx="366">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="367">
-                  <c:v>4.5800836094280699E-2</c:v>
-                </c:pt>
-                <c:pt idx="368">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="369">
-                  <c:v>0.66394342754951896</c:v>
-                </c:pt>
-                <c:pt idx="370">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="371">
-                  <c:v>4.9111154553401697E-2</c:v>
-                </c:pt>
-                <c:pt idx="372">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="373">
-                  <c:v>4.5773647198437503E-2</c:v>
-                </c:pt>
-                <c:pt idx="374">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="375">
-                  <c:v>0.74752073406099595</c:v>
-                </c:pt>
-                <c:pt idx="376">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="377">
-                  <c:v>9.2744930044196899E-2</c:v>
-                </c:pt>
-                <c:pt idx="378">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="379">
-                  <c:v>2.84513981702877E-2</c:v>
-                </c:pt>
-                <c:pt idx="380">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="381">
-                  <c:v>0.112208189526129</c:v>
-                </c:pt>
-                <c:pt idx="382">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="383">
-                  <c:v>0.11740285497193299</c:v>
-                </c:pt>
-                <c:pt idx="384">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="385">
-                  <c:v>3.5372111666611999E-2</c:v>
-                </c:pt>
-                <c:pt idx="386">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="387">
-                  <c:v>0.34750397544992301</c:v>
-                </c:pt>
-                <c:pt idx="388">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="389">
-                  <c:v>2.2581695121362599E-2</c:v>
-                </c:pt>
-                <c:pt idx="390">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="391">
-                  <c:v>0.21449039033634801</c:v>
-                </c:pt>
-                <c:pt idx="392">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="393">
-                  <c:v>5.05503957238796E-2</c:v>
-                </c:pt>
-                <c:pt idx="394">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="395">
-                  <c:v>0.27475969966599501</c:v>
-                </c:pt>
-                <c:pt idx="396">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="397">
-                  <c:v>3.7382006191042198E-2</c:v>
-                </c:pt>
-                <c:pt idx="398">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="399">
-                  <c:v>0.21978639478949299</c:v>
-                </c:pt>
-                <c:pt idx="400">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="401">
-                  <c:v>6.4237959174690398E-2</c:v>
-                </c:pt>
-                <c:pt idx="402">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="403">
-                  <c:v>0.115811864448428</c:v>
-                </c:pt>
-                <c:pt idx="404">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="405">
-                  <c:v>0.683740194691424</c:v>
-                </c:pt>
-                <c:pt idx="406">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="407">
-                  <c:v>0.50827340852324099</c:v>
-                </c:pt>
-                <c:pt idx="408">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="409">
-                  <c:v>0.29684070632263099</c:v>
-                </c:pt>
-                <c:pt idx="410">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="411">
-                  <c:v>2.2492287930367099E-2</c:v>
-                </c:pt>
-                <c:pt idx="412">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="413">
-                  <c:v>1.4935576742238299E-2</c:v>
-                </c:pt>
-                <c:pt idx="414">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="415">
-                  <c:v>0.62004052862391601</c:v>
-                </c:pt>
-                <c:pt idx="416">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="417">
-                  <c:v>9.0057521693490905E-2</c:v>
-                </c:pt>
-                <c:pt idx="418">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="419">
-                  <c:v>7.3980427133683996E-2</c:v>
-                </c:pt>
-                <c:pt idx="420">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="421">
-                  <c:v>0.13363049221526199</c:v>
-                </c:pt>
-                <c:pt idx="422">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="423">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="424">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="425">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="426">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="427">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="428">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="429">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="430">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="431">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="432">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="433">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="434">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="435">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="436">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="437">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="438">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="439">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="440">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="441">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="442">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="443">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="444">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="445">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="446">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="447">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4808,11 +2148,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="448716672"/>
-        <c:axId val="448717848"/>
+        <c:axId val="457271032"/>
+        <c:axId val="457271816"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="448716672"/>
+        <c:axId val="457271032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="450"/>
@@ -4869,12 +2209,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448717848"/>
+        <c:crossAx val="457271816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="448717848"/>
+        <c:axId val="457271816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4931,7 +2271,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448716672"/>
+        <c:crossAx val="457271032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7154,11 +4494,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="448716280"/>
-        <c:axId val="448717456"/>
+        <c:axId val="457279656"/>
+        <c:axId val="457273776"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="448716280"/>
+        <c:axId val="457279656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="350"/>
@@ -7215,12 +4555,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448717456"/>
+        <c:crossAx val="457273776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="448717456"/>
+        <c:axId val="457273776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7277,7 +4617,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448716280"/>
+        <c:crossAx val="457279656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8777,7 +6117,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8819,384 +6161,423 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>485</v>
       </c>
       <c r="B2">
-        <v>-9.0813000000000006</v>
+        <v>55.787999999999997</v>
       </c>
       <c r="C2">
-        <v>0.49759999999999999</v>
+        <v>1071.5634</v>
       </c>
       <c r="D2">
-        <v>1.1599999999999999E-2</v>
+        <v>83.207400000000007</v>
       </c>
       <c r="E2">
-        <v>-10.020300000000001</v>
+        <v>-1828.9772</v>
       </c>
       <c r="F2">
-        <v>-8.0578000000000003</v>
+        <v>2206.6583000000001</v>
       </c>
       <c r="G2">
-        <v>2099.5506999999998</v>
+        <v>80.412199999999999</v>
       </c>
       <c r="H2">
-        <v>0.99980000000000002</v>
+        <v>1.0008999999999999</v>
       </c>
       <c r="J2">
-        <f t="shared" ref="J2:J10" si="0">ABS(B2)</f>
-        <v>9.0813000000000006</v>
+        <f>ABS(B2)</f>
+        <v>55.787999999999997</v>
       </c>
       <c r="K2" s="1">
-        <f t="shared" ref="K2:K10" si="1">C2/ABS(B2)</f>
-        <v>5.4793917170449159E-2</v>
-      </c>
-      <c r="L2">
+        <f>C2/ABS(B2)</f>
+        <v>19.207775865777588</v>
+      </c>
+      <c r="L2" t="e">
         <f>IF(A2="Intercept",1,VLOOKUP(A2,Sheet5!$A$1:$B$27,2,FALSE))</f>
-        <v>0.63086900000000001</v>
-      </c>
-      <c r="M2">
-        <f t="shared" ref="M2:M10" si="2">J2*L2</f>
-        <v>5.7291106497000008</v>
+        <v>#N/A</v>
+      </c>
+      <c r="M2" t="e">
+        <f>J2*L2</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>5.7984</v>
+        <v>-9.2303999999999995</v>
       </c>
       <c r="C3">
-        <v>0.46829999999999999</v>
+        <v>107.1695</v>
       </c>
       <c r="D3">
-        <v>1.17E-2</v>
+        <v>8.3224</v>
       </c>
       <c r="E3">
-        <v>4.8243999999999998</v>
+        <v>-225.40629999999999</v>
       </c>
       <c r="F3">
-        <v>6.6428000000000003</v>
+        <v>178.43170000000001</v>
       </c>
       <c r="G3">
-        <v>1505.7126000000001</v>
+        <v>80.0428</v>
       </c>
       <c r="H3">
-        <v>0.99970000000000003</v>
+        <v>1.0009999999999999</v>
       </c>
       <c r="J3">
-        <f t="shared" si="0"/>
-        <v>5.7984</v>
+        <f>ABS(B3)</f>
+        <v>9.2303999999999995</v>
       </c>
       <c r="K3" s="1">
-        <f t="shared" si="1"/>
-        <v>8.0763658940397345E-2</v>
+        <f>C3/ABS(B3)</f>
+        <v>11.610493586410124</v>
       </c>
       <c r="L3">
         <f>IF(A3="Intercept",1,VLOOKUP(A3,Sheet5!$A$1:$B$27,2,FALSE))</f>
-        <v>0.69007399999999997</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <f t="shared" si="2"/>
-        <v>4.0013250816000001</v>
+        <f>J3*L3</f>
+        <v>9.2303999999999995</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4">
-        <v>-5.3071000000000002</v>
+        <v>-3.1311</v>
       </c>
       <c r="C4">
-        <v>0.31869999999999998</v>
+        <v>1.5063</v>
       </c>
       <c r="D4">
-        <v>8.5000000000000006E-3</v>
+        <v>0.1149</v>
       </c>
       <c r="E4">
-        <v>-5.9493999999999998</v>
+        <v>-6.0989000000000004</v>
       </c>
       <c r="F4">
-        <v>-4.6818999999999997</v>
+        <v>-0.26090000000000002</v>
       </c>
       <c r="G4">
-        <v>1402.9812999999999</v>
+        <v>72.916899999999998</v>
       </c>
       <c r="H4">
-        <v>0.99970000000000003</v>
+        <v>1.0129999999999999</v>
       </c>
       <c r="J4">
-        <f t="shared" si="0"/>
-        <v>5.3071000000000002</v>
+        <f>ABS(B4)</f>
+        <v>3.1311</v>
       </c>
       <c r="K4" s="1">
-        <f t="shared" si="1"/>
-        <v>6.0051628949897302E-2</v>
+        <f>C4/ABS(B4)</f>
+        <v>0.48107693781738048</v>
       </c>
       <c r="L4">
         <f>IF(A4="Intercept",1,VLOOKUP(A4,Sheet5!$A$1:$B$27,2,FALSE))</f>
-        <v>0.55155600000000005</v>
+        <v>0.63086900000000001</v>
       </c>
       <c r="M4">
-        <f t="shared" si="2"/>
-        <v>2.9271628476000005</v>
+        <f>J4*L4</f>
+        <v>1.9753139259000001</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>486</v>
       </c>
       <c r="B5">
-        <v>-3.6568000000000001</v>
+        <v>2.5082</v>
       </c>
       <c r="C5">
-        <v>0.2732</v>
+        <v>0.37440000000000001</v>
       </c>
       <c r="D5">
-        <v>6.6E-3</v>
+        <v>2.0899999999999998E-2</v>
       </c>
       <c r="E5">
-        <v>-4.1618000000000004</v>
+        <v>1.8262</v>
       </c>
       <c r="F5">
-        <v>-3.1200999999999999</v>
+        <v>3.2549999999999999</v>
       </c>
       <c r="G5">
-        <v>1565.9346</v>
+        <v>222.32060000000001</v>
       </c>
       <c r="H5">
-        <v>0.99980000000000002</v>
+        <v>1.0082</v>
       </c>
       <c r="J5">
-        <f t="shared" si="0"/>
-        <v>3.6568000000000001</v>
+        <f>ABS(B5)</f>
+        <v>2.5082</v>
       </c>
       <c r="K5" s="1">
-        <f t="shared" si="1"/>
-        <v>7.4710129074600742E-2</v>
-      </c>
-      <c r="L5">
+        <f>C5/ABS(B5)</f>
+        <v>0.14927039311059725</v>
+      </c>
+      <c r="L5" t="e">
         <f>IF(A5="Intercept",1,VLOOKUP(A5,Sheet5!$A$1:$B$27,2,FALSE))</f>
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <f t="shared" si="2"/>
-        <v>3.6568000000000001</v>
+        <v>#N/A</v>
+      </c>
+      <c r="M5" t="e">
+        <f>J5*L5</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B6">
-        <v>3.0148000000000001</v>
+        <v>-1.8634999999999999</v>
       </c>
       <c r="C6">
-        <v>0.51570000000000005</v>
+        <v>0.83550000000000002</v>
       </c>
       <c r="D6">
-        <v>1.38E-2</v>
+        <v>6.1800000000000001E-2</v>
       </c>
       <c r="E6">
-        <v>2.0274000000000001</v>
+        <v>-3.4851000000000001</v>
       </c>
       <c r="F6">
-        <v>4.0514000000000001</v>
+        <v>-0.26040000000000002</v>
       </c>
       <c r="G6">
-        <v>1478.8720000000001</v>
+        <v>76.646199999999993</v>
       </c>
       <c r="H6">
-        <v>0.99970000000000003</v>
+        <v>1.0117</v>
       </c>
       <c r="J6">
-        <f t="shared" si="0"/>
-        <v>3.0148000000000001</v>
+        <f>ABS(B6)</f>
+        <v>1.8634999999999999</v>
       </c>
       <c r="K6" s="1">
-        <f t="shared" si="1"/>
-        <v>0.17105612312591217</v>
+        <f>C6/ABS(B6)</f>
+        <v>0.44834987925945802</v>
       </c>
       <c r="L6">
         <f>IF(A6="Intercept",1,VLOOKUP(A6,Sheet5!$A$1:$B$27,2,FALSE))</f>
-        <v>0.64278500000000005</v>
+        <v>0.55155600000000005</v>
       </c>
       <c r="M6">
-        <f t="shared" si="2"/>
-        <v>1.9378682180000002</v>
+        <f>J6*L6</f>
+        <v>1.027824606</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>-1.1626000000000001</v>
+        <v>1.3729</v>
       </c>
       <c r="C7">
-        <v>0.23719999999999999</v>
+        <v>1.6457999999999999</v>
       </c>
       <c r="D7">
-        <v>4.5999999999999999E-3</v>
+        <v>0.1244</v>
       </c>
       <c r="E7">
-        <v>-1.6089</v>
+        <v>-1.8904000000000001</v>
       </c>
       <c r="F7">
-        <v>-0.67700000000000005</v>
+        <v>4.4488000000000003</v>
       </c>
       <c r="G7">
-        <v>2211.1950999999999</v>
+        <v>70.070999999999998</v>
       </c>
       <c r="H7">
-        <v>0.99970000000000003</v>
+        <v>1.0186999999999999</v>
       </c>
       <c r="J7">
-        <f t="shared" si="0"/>
-        <v>1.1626000000000001</v>
+        <f>ABS(B7)</f>
+        <v>1.3729</v>
       </c>
       <c r="K7" s="1">
-        <f t="shared" si="1"/>
-        <v>0.20402546017546877</v>
+        <f>C7/ABS(B7)</f>
+        <v>1.198776312914269</v>
       </c>
       <c r="L7">
         <f>IF(A7="Intercept",1,VLOOKUP(A7,Sheet5!$A$1:$B$27,2,FALSE))</f>
-        <v>0.42227300000000001</v>
+        <v>0.64278500000000005</v>
       </c>
       <c r="M7">
-        <f t="shared" si="2"/>
-        <v>0.49093458980000004</v>
+        <f>J7*L7</f>
+        <v>0.88247952650000006</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>486</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>0.88839999999999997</v>
+        <v>1.0737000000000001</v>
       </c>
       <c r="C8">
-        <v>0.15010000000000001</v>
+        <v>1.1032</v>
       </c>
       <c r="D8">
-        <v>3.2000000000000002E-3</v>
+        <v>8.4500000000000006E-2</v>
       </c>
       <c r="E8">
-        <v>0.59179999999999999</v>
+        <v>-1.0004999999999999</v>
       </c>
       <c r="F8">
-        <v>1.1698999999999999</v>
+        <v>3.1955</v>
       </c>
       <c r="G8">
-        <v>2366.9522000000002</v>
+        <v>67.307500000000005</v>
       </c>
       <c r="H8">
-        <v>1.0027999999999999</v>
+        <v>1.0065</v>
       </c>
       <c r="J8">
-        <f t="shared" si="0"/>
-        <v>0.88839999999999997</v>
+        <f>ABS(B8)</f>
+        <v>1.0737000000000001</v>
       </c>
       <c r="K8" s="1">
-        <f t="shared" si="1"/>
-        <v>0.16895542548401624</v>
-      </c>
-      <c r="L8" t="e">
+        <f>C8/ABS(B8)</f>
+        <v>1.0274750861506938</v>
+      </c>
+      <c r="L8">
         <f>IF(A8="Intercept",1,VLOOKUP(A8,Sheet5!$A$1:$B$27,2,FALSE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M8" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
+        <v>0.69007399999999997</v>
+      </c>
+      <c r="M8">
+        <f>J8*L8</f>
+        <v>0.74093245380000006</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>485</v>
+        <v>634</v>
       </c>
       <c r="B9">
-        <v>0.29010000000000002</v>
+        <v>0.77210000000000001</v>
       </c>
       <c r="C9">
-        <v>0.22389999999999999</v>
+        <v>0.3901</v>
       </c>
       <c r="D9">
-        <v>5.5999999999999999E-3</v>
+        <v>2.3300000000000001E-2</v>
       </c>
       <c r="E9">
-        <v>-0.1198</v>
+        <v>-7.0000000000000001E-3</v>
       </c>
       <c r="F9">
-        <v>0.7581</v>
+        <v>1.5190999999999999</v>
       </c>
       <c r="G9">
-        <v>1522.4255000000001</v>
+        <v>168.63229999999999</v>
       </c>
       <c r="H9">
-        <v>0.99970000000000003</v>
+        <v>1.0009999999999999</v>
       </c>
       <c r="J9">
-        <f t="shared" si="0"/>
-        <v>0.29010000000000002</v>
+        <f>ABS(B9)</f>
+        <v>0.77210000000000001</v>
       </c>
       <c r="K9" s="1">
-        <f t="shared" si="1"/>
-        <v>0.77180282661151312</v>
+        <f>C9/ABS(B9)</f>
+        <v>0.50524543452920601</v>
       </c>
       <c r="L9" t="e">
         <f>IF(A9="Intercept",1,VLOOKUP(A9,Sheet5!$A$1:$B$27,2,FALSE))</f>
         <v>#N/A</v>
       </c>
       <c r="M9" t="e">
-        <f t="shared" si="2"/>
+        <f>J9*L9</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B10">
-        <v>7.7399999999999997E-2</v>
+        <v>0.45960000000000001</v>
       </c>
       <c r="C10">
-        <v>0.19719999999999999</v>
+        <v>0.45440000000000003</v>
       </c>
       <c r="D10">
-        <v>4.4000000000000003E-3</v>
+        <v>2.9899999999999999E-2</v>
       </c>
       <c r="E10">
-        <v>-0.33050000000000002</v>
+        <v>-0.40689999999999998</v>
       </c>
       <c r="F10">
-        <v>0.43890000000000001</v>
+        <v>1.3734999999999999</v>
       </c>
       <c r="G10">
-        <v>2040.8851999999999</v>
+        <v>117.5545</v>
       </c>
       <c r="H10">
-        <v>0.99980000000000002</v>
+        <v>1.0004</v>
       </c>
       <c r="J10">
-        <f t="shared" si="0"/>
-        <v>7.7399999999999997E-2</v>
+        <f>ABS(B10)</f>
+        <v>0.45960000000000001</v>
       </c>
       <c r="K10" s="1">
-        <f t="shared" si="1"/>
-        <v>2.5478036175710592</v>
+        <f>C10/ABS(B10)</f>
+        <v>0.98868581375108799</v>
       </c>
       <c r="L10">
         <f>IF(A10="Intercept",1,VLOOKUP(A10,Sheet5!$A$1:$B$27,2,FALSE))</f>
+        <v>0.42227300000000001</v>
+      </c>
+      <c r="M10">
+        <f>J10*L10</f>
+        <v>0.19407667080000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11">
+        <v>-0.33550000000000002</v>
+      </c>
+      <c r="C11">
+        <v>0.37159999999999999</v>
+      </c>
+      <c r="D11">
+        <v>2.4199999999999999E-2</v>
+      </c>
+      <c r="E11">
+        <v>-1.0276000000000001</v>
+      </c>
+      <c r="F11">
+        <v>0.41860000000000003</v>
+      </c>
+      <c r="G11">
+        <v>135.4478</v>
+      </c>
+      <c r="H11">
+        <v>1.0031000000000001</v>
+      </c>
+      <c r="J11">
+        <f>ABS(B11)</f>
+        <v>0.33550000000000002</v>
+      </c>
+      <c r="K11" s="1">
+        <f>C11/ABS(B11)</f>
+        <v>1.1076005961251862</v>
+      </c>
+      <c r="L11">
+        <f>IF(A11="Intercept",1,VLOOKUP(A11,Sheet5!$A$1:$B$27,2,FALSE))</f>
         <v>0.37740600000000002</v>
       </c>
-      <c r="M10">
-        <f t="shared" si="2"/>
-        <v>2.9211224399999999E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K11" s="1"/>
+      <c r="M11">
+        <f>J11*L11</f>
+        <v>0.12661971300000002</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K12" s="1"/>
@@ -9209,7 +6590,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:M1">
-    <sortState ref="A2:M10">
+    <sortState ref="A2:M11">
       <sortCondition descending="1" ref="J1"/>
     </sortState>
   </autoFilter>
@@ -9454,10 +6835,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K449"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9475,7 +6857,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>434</v>
       </c>
@@ -9513,7 +6895,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>434</v>
       </c>
@@ -9551,7 +6933,7 @@
         <v>8.4217104882607294E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>434</v>
       </c>
@@ -9582,7 +6964,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>434</v>
       </c>
@@ -9613,7 +6995,7 @@
         <v>8.0419935593456393E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>436</v>
       </c>
@@ -9644,7 +7026,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>436</v>
       </c>
@@ -9675,7 +7057,7 @@
         <v>1.7599436389759901E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>438</v>
       </c>
@@ -9706,7 +7088,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>438</v>
       </c>
@@ -9737,7 +7119,7 @@
         <v>8.3226261666723797E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>442</v>
       </c>
@@ -9768,7 +7150,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>442</v>
       </c>
@@ -9799,7 +7181,7 @@
         <v>0.162800795236799</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>442</v>
       </c>
@@ -9830,7 +7212,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>442</v>
       </c>
@@ -9861,7 +7243,7 @@
         <v>6.7392801746103001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>440</v>
       </c>
@@ -9892,7 +7274,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>440</v>
       </c>
@@ -9923,7 +7305,7 @@
         <v>3.4347672842669298E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>446</v>
       </c>
@@ -9954,7 +7336,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>446</v>
       </c>
@@ -9985,7 +7367,7 @@
         <v>0.130112413335083</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>448</v>
       </c>
@@ -10016,7 +7398,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>448</v>
       </c>
@@ -10047,7 +7429,7 @@
         <v>5.5344320301279198E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>487</v>
       </c>
@@ -10078,7 +7460,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>487</v>
       </c>
@@ -10109,7 +7491,7 @@
         <v>0.125377509977392</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>452</v>
       </c>
@@ -10140,7 +7522,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>452</v>
       </c>
@@ -10171,7 +7553,7 @@
         <v>0.27907488491931898</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>454</v>
       </c>
@@ -10202,7 +7584,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>454</v>
       </c>
@@ -10233,7 +7615,7 @@
         <v>8.9590618226073008E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>456</v>
       </c>
@@ -10264,7 +7646,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>456</v>
       </c>
@@ -10295,7 +7677,7 @@
         <v>9.4314253453454608E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>440</v>
       </c>
@@ -10326,7 +7708,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>440</v>
       </c>
@@ -10357,7 +7739,7 @@
         <v>0.39567705625388899</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>458</v>
       </c>
@@ -10388,7 +7770,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>458</v>
       </c>
@@ -10419,7 +7801,7 @@
         <v>0.22735427981200099</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>460</v>
       </c>
@@ -10450,7 +7832,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>460</v>
       </c>
@@ -10481,7 +7863,7 @@
         <v>0.35809717840654898</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>462</v>
       </c>
@@ -10512,7 +7894,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>462</v>
       </c>
@@ -10543,7 +7925,7 @@
         <v>1.50271463351913E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>436</v>
       </c>
@@ -10574,7 +7956,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>436</v>
       </c>
@@ -10605,7 +7987,7 @@
         <v>4.6680428314570199E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>446</v>
       </c>
@@ -10636,7 +8018,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>446</v>
       </c>
@@ -10667,7 +8049,7 @@
         <v>0.154931500077365</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>466</v>
       </c>
@@ -10698,7 +8080,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>466</v>
       </c>
@@ -10729,7 +8111,7 @@
         <v>0.15292078105972901</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>440</v>
       </c>
@@ -10760,7 +8142,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>440</v>
       </c>
@@ -10791,7 +8173,7 @@
         <v>1.32834884305921E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>470</v>
       </c>
@@ -10822,7 +8204,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>470</v>
       </c>
@@ -10853,7 +8235,7 @@
         <v>0.55128144411534796</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>476</v>
       </c>
@@ -10884,7 +8266,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>476</v>
       </c>
@@ -10915,7 +8297,7 @@
         <v>0.72010090270087901</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>472</v>
       </c>
@@ -10946,7 +8328,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>472</v>
       </c>
@@ -10977,7 +8359,7 @@
         <v>0.102192737733484</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>474</v>
       </c>
@@ -11008,7 +8390,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>474</v>
       </c>
@@ -11039,7 +8421,7 @@
         <v>0.12704565173565399</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>476</v>
       </c>
@@ -11070,7 +8452,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>476</v>
       </c>
@@ -11101,7 +8483,7 @@
         <v>0.73076049381561503</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>478</v>
       </c>
@@ -11132,7 +8514,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>478</v>
       </c>
@@ -11163,7 +8545,7 @@
         <v>0.58005984774991703</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>490</v>
       </c>
@@ -11194,7 +8576,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>490</v>
       </c>
@@ -11225,7 +8607,7 @@
         <v>2.82638038179106E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>452</v>
       </c>
@@ -11256,7 +8638,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>452</v>
       </c>
@@ -11287,7 +8669,7 @@
         <v>5.1405143430748201E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>481</v>
       </c>
@@ -11318,7 +8700,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>481</v>
       </c>
@@ -11349,7 +8731,7 @@
         <v>7.5257193881482595E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>483</v>
       </c>
@@ -11380,7 +8762,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>483</v>
       </c>
@@ -11411,7 +8793,7 @@
         <v>0.56452431983873796</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>474</v>
       </c>
@@ -11442,7 +8824,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>474</v>
       </c>
@@ -11473,7 +8855,7 @@
         <v>7.6983163411634595E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>493</v>
       </c>
@@ -11504,7 +8886,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>493</v>
       </c>
@@ -11535,7 +8917,7 @@
         <v>0.18723201002034101</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>440</v>
       </c>
@@ -11566,7 +8948,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>440</v>
       </c>
@@ -11597,7 +8979,7 @@
         <v>0.40632411659558798</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>496</v>
       </c>
@@ -11628,7 +9010,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>496</v>
       </c>
@@ -11659,7 +9041,7 @@
         <v>0.53922655720094403</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>498</v>
       </c>
@@ -11690,7 +9072,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>498</v>
       </c>
@@ -11721,7 +9103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>446</v>
       </c>
@@ -11752,7 +9134,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>446</v>
       </c>
@@ -11783,7 +9165,7 @@
         <v>8.8974500975424503E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>469</v>
       </c>
@@ -11814,7 +9196,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>469</v>
       </c>
@@ -11845,7 +9227,7 @@
         <v>0.18153484679557799</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>483</v>
       </c>
@@ -11876,7 +9258,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>483</v>
       </c>
@@ -11907,7 +9289,7 @@
         <v>-2.2663900837771301E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>442</v>
       </c>
@@ -11938,7 +9320,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>442</v>
       </c>
@@ -11969,7 +9351,7 @@
         <v>1.8781077162904201E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>438</v>
       </c>
@@ -12000,7 +9382,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>438</v>
       </c>
@@ -12031,7 +9413,7 @@
         <v>0.52474856409121295</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>466</v>
       </c>
@@ -12062,7 +9444,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>466</v>
       </c>
@@ -12093,7 +9475,7 @@
         <v>5.3642453979674598E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>450</v>
       </c>
@@ -12124,7 +9506,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>450</v>
       </c>
@@ -12155,7 +9537,7 @@
         <v>6.5995294602781696E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>506</v>
       </c>
@@ -12186,7 +9568,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>506</v>
       </c>
@@ -12217,7 +9599,7 @@
         <v>5.5313230297753098E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>508</v>
       </c>
@@ -12248,7 +9630,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>508</v>
       </c>
@@ -12279,7 +9661,7 @@
         <v>0.14430177719083601</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>490</v>
       </c>
@@ -12310,7 +9692,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>490</v>
       </c>
@@ -12341,7 +9723,7 @@
         <v>4.3436686946944802E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>496</v>
       </c>
@@ -12372,7 +9754,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>496</v>
       </c>
@@ -12403,7 +9785,7 @@
         <v>6.6662857332200703E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>434</v>
       </c>
@@ -12434,7 +9816,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>434</v>
       </c>
@@ -12465,7 +9847,7 @@
         <v>6.82577907287365E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>448</v>
       </c>
@@ -12496,7 +9878,7 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>448</v>
       </c>
@@ -12527,7 +9909,7 @@
         <v>6.6437542512227596E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>438</v>
       </c>
@@ -12558,7 +9940,7 @@
         <v/>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>438</v>
       </c>
@@ -12589,7 +9971,7 @@
         <v>0.51298296615665695</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>436</v>
       </c>
@@ -12620,7 +10002,7 @@
         <v/>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>436</v>
       </c>
@@ -12651,7 +10033,7 @@
         <v>0.25018210637175198</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>462</v>
       </c>
@@ -12682,7 +10064,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>462</v>
       </c>
@@ -12713,7 +10095,7 @@
         <v>0.219086689806756</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>517</v>
       </c>
@@ -12744,7 +10126,7 @@
         <v/>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>517</v>
       </c>
@@ -12775,7 +10157,7 @@
         <v>0.336865197327056</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>452</v>
       </c>
@@ -12806,7 +10188,7 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>452</v>
       </c>
@@ -12837,7 +10219,7 @@
         <v>0.29112752146336601</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>498</v>
       </c>
@@ -12868,7 +10250,7 @@
         <v/>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>498</v>
       </c>
@@ -12899,7 +10281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>438</v>
       </c>
@@ -12930,7 +10312,7 @@
         <v/>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>438</v>
       </c>
@@ -12961,7 +10343,7 @@
         <v>2.88905658615429E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>521</v>
       </c>
@@ -12992,7 +10374,7 @@
         <v/>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>521</v>
       </c>
@@ -13023,7 +10405,7 @@
         <v>3.4213246894859897E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>522</v>
       </c>
@@ -13054,7 +10436,7 @@
         <v/>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>522</v>
       </c>
@@ -13085,7 +10467,7 @@
         <v>2.1291493452597499E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>454</v>
       </c>
@@ -13116,7 +10498,7 @@
         <v/>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>454</v>
       </c>
@@ -13147,7 +10529,7 @@
         <v>1.62827168030346E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>446</v>
       </c>
@@ -13178,7 +10560,7 @@
         <v/>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>446</v>
       </c>
@@ -13209,7 +10591,7 @@
         <v>3.70665103991124E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>474</v>
       </c>
@@ -13240,7 +10622,7 @@
         <v/>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>474</v>
       </c>
@@ -13271,7 +10653,7 @@
         <v>0.10609021112108</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>524</v>
       </c>
@@ -13302,7 +10684,7 @@
         <v/>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>524</v>
       </c>
@@ -13333,7 +10715,7 @@
         <v>0.13096449396217</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>458</v>
       </c>
@@ -13364,7 +10746,7 @@
         <v/>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>458</v>
       </c>
@@ -13395,7 +10777,7 @@
         <v>0.11474008893764</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>526</v>
       </c>
@@ -13426,7 +10808,7 @@
         <v/>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>526</v>
       </c>
@@ -13457,7 +10839,7 @@
         <v>1.44874879448203E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>528</v>
       </c>
@@ -13488,7 +10870,7 @@
         <v/>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>528</v>
       </c>
@@ -13519,7 +10901,7 @@
         <v>0.416027103939138</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>517</v>
       </c>
@@ -13550,7 +10932,7 @@
         <v/>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>517</v>
       </c>
@@ -13581,7 +10963,7 @@
         <v>1.6783241797977098E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>470</v>
       </c>
@@ -13612,7 +10994,7 @@
         <v/>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>470</v>
       </c>
@@ -13643,7 +11025,7 @@
         <v>5.1792668112842499E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>456</v>
       </c>
@@ -13674,7 +11056,7 @@
         <v/>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>456</v>
       </c>
@@ -13705,7 +11087,7 @@
         <v>9.8400096349725102E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>531</v>
       </c>
@@ -13736,7 +11118,7 @@
         <v/>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>531</v>
       </c>
@@ -13767,7 +11149,7 @@
         <v>3.3080785145229701E-3</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>532</v>
       </c>
@@ -13798,7 +11180,7 @@
         <v/>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>532</v>
       </c>
@@ -13829,7 +11211,7 @@
         <v>1.7102637677398801E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>534</v>
       </c>
@@ -13860,7 +11242,7 @@
         <v/>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>534</v>
       </c>
@@ -13891,7 +11273,7 @@
         <v>0.58798492378849398</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>534</v>
       </c>
@@ -13922,7 +11304,7 @@
         <v/>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>534</v>
       </c>
@@ -13953,7 +11335,7 @@
         <v>0.39987859793346597</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>536</v>
       </c>
@@ -13984,7 +11366,7 @@
         <v/>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>536</v>
       </c>
@@ -14015,7 +11397,7 @@
         <v>0.55838560369967105</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>537</v>
       </c>
@@ -14046,7 +11428,7 @@
         <v/>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>537</v>
       </c>
@@ -14077,7 +11459,7 @@
         <v>0.43028429512844102</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>539</v>
       </c>
@@ -14108,7 +11490,7 @@
         <v/>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>539</v>
       </c>
@@ -14139,7 +11521,7 @@
         <v>0.41842340341522499</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>539</v>
       </c>
@@ -14170,7 +11552,7 @@
         <v/>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>539</v>
       </c>
@@ -14201,7 +11583,7 @@
         <v>0.30926333217565799</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>478</v>
       </c>
@@ -14232,7 +11614,7 @@
         <v/>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>478</v>
       </c>
@@ -14263,7 +11645,7 @@
         <v>5.48176435983227E-3</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>543</v>
       </c>
@@ -14294,7 +11676,7 @@
         <v/>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>543</v>
       </c>
@@ -14325,7 +11707,7 @@
         <v>3.04480479664237E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>545</v>
       </c>
@@ -14356,7 +11738,7 @@
         <v/>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>545</v>
       </c>
@@ -14387,7 +11769,7 @@
         <v>4.1765791906158797E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>452</v>
       </c>
@@ -14418,7 +11800,7 @@
         <v/>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>452</v>
       </c>
@@ -14449,7 +11831,7 @@
         <v>7.5620372217818393E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>454</v>
       </c>
@@ -14480,7 +11862,7 @@
         <v/>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>454</v>
       </c>
@@ -14511,7 +11893,7 @@
         <v>3.5186627898693999E-2</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>434</v>
       </c>
@@ -14542,7 +11924,7 @@
         <v/>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>434</v>
       </c>
@@ -14573,7 +11955,7 @@
         <v>2.6849628799169099E-2</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>517</v>
       </c>
@@ -14604,7 +11986,7 @@
         <v/>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>517</v>
       </c>
@@ -14635,7 +12017,7 @@
         <v>0.355941553279425</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>462</v>
       </c>
@@ -14666,7 +12048,7 @@
         <v/>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>462</v>
       </c>
@@ -14697,7 +12079,7 @@
         <v>-2.5680819914275499E-4</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>470</v>
       </c>
@@ -14728,7 +12110,7 @@
         <v/>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>470</v>
       </c>
@@ -14759,7 +12141,7 @@
         <v>2.6240202684572701E-2</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>521</v>
       </c>
@@ -14790,7 +12172,7 @@
         <v/>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>521</v>
       </c>
@@ -14821,7 +12203,7 @@
         <v>4.0963546984831699E-2</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>452</v>
       </c>
@@ -14852,7 +12234,7 @@
         <v/>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>452</v>
       </c>
@@ -14883,7 +12265,7 @@
         <v>6.2759110242531002E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>551</v>
       </c>
@@ -14914,7 +12296,7 @@
         <v/>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>551</v>
       </c>
@@ -14945,7 +12327,7 @@
         <v>6.4999012021411104E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>539</v>
       </c>
@@ -14976,7 +12358,7 @@
         <v/>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>539</v>
       </c>
@@ -15007,7 +12389,7 @@
         <v>0.18653785671464901</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>493</v>
       </c>
@@ -15038,7 +12420,7 @@
         <v/>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>493</v>
       </c>
@@ -15069,7 +12451,7 @@
         <v>7.1986655582303202E-2</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>490</v>
       </c>
@@ -15100,7 +12482,7 @@
         <v/>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>490</v>
       </c>
@@ -15131,7 +12513,7 @@
         <v>3.8682633333333598E-2</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>481</v>
       </c>
@@ -15162,7 +12544,7 @@
         <v/>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>481</v>
       </c>
@@ -15193,7 +12575,7 @@
         <v>0.28680073810968898</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>434</v>
       </c>
@@ -15224,7 +12606,7 @@
         <v/>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>434</v>
       </c>
@@ -15255,7 +12637,7 @@
         <v>0.110678278964163</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>436</v>
       </c>
@@ -15286,7 +12668,7 @@
         <v/>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>436</v>
       </c>
@@ -15317,7 +12699,7 @@
         <v>0.188420466308547</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>476</v>
       </c>
@@ -15348,7 +12730,7 @@
         <v/>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>476</v>
       </c>
@@ -15379,7 +12761,7 @@
         <v>0.38515594984394502</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>446</v>
       </c>
@@ -15410,7 +12792,7 @@
         <v/>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>446</v>
       </c>
@@ -15441,7 +12823,7 @@
         <v>0.211473049388856</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>560</v>
       </c>
@@ -15472,7 +12854,7 @@
         <v/>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>560</v>
       </c>
@@ -15503,7 +12885,7 @@
         <v>0.23534911820118801</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>498</v>
       </c>
@@ -15534,7 +12916,7 @@
         <v/>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>498</v>
       </c>
@@ -15565,7 +12947,7 @@
         <v>0.21380080881182301</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>466</v>
       </c>
@@ -15596,7 +12978,7 @@
         <v/>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>466</v>
       </c>
@@ -15627,7 +13009,7 @@
         <v>1.07306569001925E-2</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>493</v>
       </c>
@@ -15658,7 +13040,7 @@
         <v/>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>493</v>
       </c>
@@ -15689,7 +13071,7 @@
         <v>0.15036803508378199</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>498</v>
       </c>
@@ -15720,7 +13102,7 @@
         <v/>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>498</v>
       </c>
@@ -15751,7 +13133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>521</v>
       </c>
@@ -15782,7 +13164,7 @@
         <v/>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>521</v>
       </c>
@@ -15875,7 +13257,7 @@
         <v>0.23909198639231699</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>568</v>
       </c>
@@ -15906,7 +13288,7 @@
         <v/>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>568</v>
       </c>
@@ -15937,7 +13319,7 @@
         <v>3.0992665161142501E-2</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>528</v>
       </c>
@@ -15968,7 +13350,7 @@
         <v/>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>528</v>
       </c>
@@ -15999,7 +13381,7 @@
         <v>0.130026530649588</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>462</v>
       </c>
@@ -16030,7 +13412,7 @@
         <v/>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>462</v>
       </c>
@@ -16061,7 +13443,7 @@
         <v>5.1530792268256902E-2</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>571</v>
       </c>
@@ -16092,7 +13474,7 @@
         <v/>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>571</v>
       </c>
@@ -16123,7 +13505,7 @@
         <v>0.57149312993527801</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>469</v>
       </c>
@@ -16154,7 +13536,7 @@
         <v/>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>469</v>
       </c>
@@ -16185,7 +13567,7 @@
         <v>0.70533864010587</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>571</v>
       </c>
@@ -16216,7 +13598,7 @@
         <v/>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>571</v>
       </c>
@@ -16247,7 +13629,7 @@
         <v>4.68749700076748E-2</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>498</v>
       </c>
@@ -16278,7 +13660,7 @@
         <v/>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>498</v>
       </c>
@@ -16309,7 +13691,7 @@
         <v>2.7123883002756002E-2</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>469</v>
       </c>
@@ -16340,7 +13722,7 @@
         <v/>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>469</v>
       </c>
@@ -16371,7 +13753,7 @@
         <v>0.1071652582</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>458</v>
       </c>
@@ -16402,7 +13784,7 @@
         <v/>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>458</v>
       </c>
@@ -16433,7 +13815,7 @@
         <v>0.61153601932037305</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>466</v>
       </c>
@@ -16464,7 +13846,7 @@
         <v/>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>466</v>
       </c>
@@ -16495,7 +13877,7 @@
         <v>4.3099879226907001E-2</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>498</v>
       </c>
@@ -16526,7 +13908,7 @@
         <v/>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>498</v>
       </c>
@@ -16557,7 +13939,7 @@
         <v>0.11765659582571</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>577</v>
       </c>
@@ -16588,7 +13970,7 @@
         <v/>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>577</v>
       </c>
@@ -16619,7 +14001,7 @@
         <v>5.2474628107678598E-2</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>517</v>
       </c>
@@ -16650,7 +14032,7 @@
         <v/>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>517</v>
       </c>
@@ -16681,7 +14063,7 @@
         <v>0.59978934427637398</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>434</v>
       </c>
@@ -16712,7 +14094,7 @@
         <v/>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>434</v>
       </c>
@@ -16743,7 +14125,7 @@
         <v>0.16893761177698399</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>579</v>
       </c>
@@ -16774,7 +14156,7 @@
         <v/>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>579</v>
       </c>
@@ -16805,7 +14187,7 @@
         <v>0.45653065194964898</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>454</v>
       </c>
@@ -16836,7 +14218,7 @@
         <v/>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>454</v>
       </c>
@@ -16867,7 +14249,7 @@
         <v>8.6365322361737398E-2</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>537</v>
       </c>
@@ -16898,7 +14280,7 @@
         <v/>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>537</v>
       </c>
@@ -16929,7 +14311,7 @@
         <v>0.65899250476194204</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>483</v>
       </c>
@@ -16960,7 +14342,7 @@
         <v/>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>483</v>
       </c>
@@ -16991,7 +14373,7 @@
         <v>7.3751994890095304E-2</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>539</v>
       </c>
@@ -17022,7 +14404,7 @@
         <v/>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>539</v>
       </c>
@@ -17053,7 +14435,7 @@
         <v>8.8617630880681794E-3</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>526</v>
       </c>
@@ -17084,7 +14466,7 @@
         <v/>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>526</v>
       </c>
@@ -17115,7 +14497,7 @@
         <v>5.5515952844511697E-2</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>490</v>
       </c>
@@ -17146,7 +14528,7 @@
         <v/>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>490</v>
       </c>
@@ -17239,7 +14621,7 @@
         <v>4.2188844065325297E-2</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>436</v>
       </c>
@@ -17270,7 +14652,7 @@
         <v/>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>436</v>
       </c>
@@ -17301,7 +14683,7 @@
         <v>6.6592991379887306E-2</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>577</v>
       </c>
@@ -17332,7 +14714,7 @@
         <v/>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>577</v>
       </c>
@@ -17363,7 +14745,7 @@
         <v>2.0317865311469001E-2</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>587</v>
       </c>
@@ -17394,7 +14776,7 @@
         <v/>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>587</v>
       </c>
@@ -17425,7 +14807,7 @@
         <v>9.3884916837162602E-2</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>452</v>
       </c>
@@ -17456,7 +14838,7 @@
         <v/>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>452</v>
       </c>
@@ -17487,7 +14869,7 @@
         <v>-1.15858580100325E-3</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>462</v>
       </c>
@@ -17518,7 +14900,7 @@
         <v/>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>462</v>
       </c>
@@ -17549,7 +14931,7 @@
         <v>0.123942465209907</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>589</v>
       </c>
@@ -17580,7 +14962,7 @@
         <v/>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>589</v>
       </c>
@@ -17611,7 +14993,7 @@
         <v>0.113529067792527</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>469</v>
       </c>
@@ -17642,7 +15024,7 @@
         <v/>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>469</v>
       </c>
@@ -17673,7 +15055,7 @@
         <v>0.10637966646892701</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>487</v>
       </c>
@@ -17704,7 +15086,7 @@
         <v/>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>487</v>
       </c>
@@ -17735,7 +15117,7 @@
         <v>0.17774508885633999</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>470</v>
       </c>
@@ -17766,7 +15148,7 @@
         <v/>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>470</v>
       </c>
@@ -17797,7 +15179,7 @@
         <v>9.4199403423891201E-2</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>524</v>
       </c>
@@ -17828,7 +15210,7 @@
         <v/>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>524</v>
       </c>
@@ -17859,7 +15241,7 @@
         <v>0.10948156274791</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>476</v>
       </c>
@@ -17890,7 +15272,7 @@
         <v/>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>476</v>
       </c>
@@ -17921,7 +15303,7 @@
         <v>3.2244823452726702E-2</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>593</v>
       </c>
@@ -17952,7 +15334,7 @@
         <v/>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>593</v>
       </c>
@@ -17983,7 +15365,7 @@
         <v>4.9986709328073899E-2</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>436</v>
       </c>
@@ -18014,7 +15396,7 @@
         <v/>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>436</v>
       </c>
@@ -18045,7 +15427,7 @@
         <v>0.52177507396368705</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>506</v>
       </c>
@@ -18076,7 +15458,7 @@
         <v/>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>506</v>
       </c>
@@ -18107,7 +15489,7 @@
         <v>1.9229471291460999E-2</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>534</v>
       </c>
@@ -18138,7 +15520,7 @@
         <v/>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>534</v>
       </c>
@@ -18169,7 +15551,7 @@
         <v>0.44525370559726901</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>436</v>
       </c>
@@ -18200,7 +15582,7 @@
         <v/>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>436</v>
       </c>
@@ -18231,7 +15613,7 @@
         <v>6.3098186519781801E-2</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>522</v>
       </c>
@@ -18262,7 +15644,7 @@
         <v/>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>522</v>
       </c>
@@ -18293,7 +15675,7 @@
         <v>0.15796651878130999</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>577</v>
       </c>
@@ -18324,7 +15706,7 @@
         <v/>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>577</v>
       </c>
@@ -18355,7 +15737,7 @@
         <v>0.371092366993859</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>478</v>
       </c>
@@ -18386,7 +15768,7 @@
         <v/>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>478</v>
       </c>
@@ -18417,7 +15799,7 @@
         <v>5.8596298502659003E-2</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>597</v>
       </c>
@@ -18448,7 +15830,7 @@
         <v/>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>597</v>
       </c>
@@ -18479,7 +15861,7 @@
         <v>0.205364056456941</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>598</v>
       </c>
@@ -18510,7 +15892,7 @@
         <v/>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>598</v>
       </c>
@@ -18541,7 +15923,7 @@
         <v>2.1930018015920299E-2</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>599</v>
       </c>
@@ -18572,7 +15954,7 @@
         <v/>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>599</v>
       </c>
@@ -18603,7 +15985,7 @@
         <v>8.3364020607327102E-3</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>600</v>
       </c>
@@ -18634,7 +16016,7 @@
         <v/>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>600</v>
       </c>
@@ -18665,7 +16047,7 @@
         <v>8.0115448954193202E-2</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>602</v>
       </c>
@@ -18696,7 +16078,7 @@
         <v/>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>602</v>
       </c>
@@ -18727,7 +16109,7 @@
         <v>0.13275643253366601</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>456</v>
       </c>
@@ -18758,7 +16140,7 @@
         <v/>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>456</v>
       </c>
@@ -18789,7 +16171,7 @@
         <v>0.69001096410876195</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>597</v>
       </c>
@@ -18820,7 +16202,7 @@
         <v/>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>597</v>
       </c>
@@ -18851,7 +16233,7 @@
         <v>0.166208864653697</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>462</v>
       </c>
@@ -18882,7 +16264,7 @@
         <v/>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>462</v>
       </c>
@@ -18913,7 +16295,7 @@
         <v>0.67661330354522797</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>452</v>
       </c>
@@ -18944,7 +16326,7 @@
         <v/>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>452</v>
       </c>
@@ -18975,7 +16357,7 @@
         <v>5.0588160588401702E-2</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>517</v>
       </c>
@@ -19006,7 +16388,7 @@
         <v/>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>517</v>
       </c>
@@ -19037,7 +16419,7 @@
         <v>2.16531439841601E-2</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>606</v>
       </c>
@@ -19068,7 +16450,7 @@
         <v/>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>606</v>
       </c>
@@ -19099,7 +16481,7 @@
         <v>1.5858144408732401E-3</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>450</v>
       </c>
@@ -19130,7 +16512,7 @@
         <v/>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>450</v>
       </c>
@@ -19161,7 +16543,7 @@
         <v>7.8831570908862503E-2</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>607</v>
       </c>
@@ -19192,7 +16574,7 @@
         <v/>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>607</v>
       </c>
@@ -19223,7 +16605,7 @@
         <v>0.51881491097064603</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>608</v>
       </c>
@@ -19254,7 +16636,7 @@
         <v/>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>608</v>
       </c>
@@ -19285,7 +16667,7 @@
         <v>1.15308143563913E-2</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>598</v>
       </c>
@@ -19316,7 +16698,7 @@
         <v/>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>598</v>
       </c>
@@ -19347,7 +16729,7 @@
         <v>0.43771448368660698</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>610</v>
       </c>
@@ -19378,7 +16760,7 @@
         <v/>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>610</v>
       </c>
@@ -19409,7 +16791,7 @@
         <v>1.8954500525621198E-2</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>522</v>
       </c>
@@ -19440,7 +16822,7 @@
         <v/>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>522</v>
       </c>
@@ -19471,7 +16853,7 @@
         <v>7.4083236229407406E-2</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>593</v>
       </c>
@@ -19502,7 +16884,7 @@
         <v/>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>593</v>
       </c>
@@ -19533,7 +16915,7 @@
         <v>0.108631090986502</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>472</v>
       </c>
@@ -19564,7 +16946,7 @@
         <v/>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>472</v>
       </c>
@@ -19595,7 +16977,7 @@
         <v>0.68167038704932104</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>452</v>
       </c>
@@ -19626,7 +17008,7 @@
         <v/>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>452</v>
       </c>
@@ -19657,7 +17039,7 @@
         <v>1.1521118551088901E-2</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>466</v>
       </c>
@@ -19688,7 +17070,7 @@
         <v/>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>466</v>
       </c>
@@ -19719,7 +17101,7 @@
         <v>5.3155631462331598E-4</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>440</v>
       </c>
@@ -19750,7 +17132,7 @@
         <v/>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>440</v>
       </c>
@@ -19781,7 +17163,7 @@
         <v>7.1610149383338803E-2</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>490</v>
       </c>
@@ -19812,7 +17194,7 @@
         <v/>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>490</v>
       </c>
@@ -19843,7 +17225,7 @@
         <v>0.128880627979644</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>470</v>
       </c>
@@ -19874,7 +17256,7 @@
         <v/>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>470</v>
       </c>
@@ -19905,7 +17287,7 @@
         <v>2.4171206080082198E-2</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>589</v>
       </c>
@@ -19936,7 +17318,7 @@
         <v/>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>589</v>
       </c>
@@ -19967,7 +17349,7 @@
         <v>0.184882821131896</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>593</v>
       </c>
@@ -19998,7 +17380,7 @@
         <v/>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>593</v>
       </c>
@@ -20029,7 +17411,7 @@
         <v>0.130491807883063</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>593</v>
       </c>
@@ -20060,7 +17442,7 @@
         <v/>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>593</v>
       </c>
@@ -20091,7 +17473,7 @@
         <v>3.6297424415627402E-2</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>531</v>
       </c>
@@ -20122,7 +17504,7 @@
         <v/>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>531</v>
       </c>
@@ -20153,7 +17535,7 @@
         <v>8.1685409893697797E-2</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>458</v>
       </c>
@@ -20184,7 +17566,7 @@
         <v/>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>458</v>
       </c>
@@ -20215,7 +17597,7 @@
         <v>0.75155006301221505</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>602</v>
       </c>
@@ -20246,7 +17628,7 @@
         <v/>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>602</v>
       </c>
@@ -20277,7 +17659,7 @@
         <v>-3.1680780044101201E-2</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>616</v>
       </c>
@@ -20308,7 +17690,7 @@
         <v/>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>616</v>
       </c>
@@ -20339,7 +17721,7 @@
         <v>8.1523655507217005E-2</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>534</v>
       </c>
@@ -20370,7 +17752,7 @@
         <v/>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>534</v>
       </c>
@@ -20401,7 +17783,7 @@
         <v>9.3750770151155793E-2</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>618</v>
       </c>
@@ -20432,7 +17814,7 @@
         <v/>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>618</v>
       </c>
@@ -20463,7 +17845,7 @@
         <v>0.13354317291930101</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>620</v>
       </c>
@@ -20494,7 +17876,7 @@
         <v/>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>620</v>
       </c>
@@ -20525,7 +17907,7 @@
         <v>0.35427599265896997</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>621</v>
       </c>
@@ -20556,7 +17938,7 @@
         <v/>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>621</v>
       </c>
@@ -20587,7 +17969,7 @@
         <v>8.9359223606093496E-2</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>620</v>
       </c>
@@ -20618,7 +18000,7 @@
         <v/>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>620</v>
       </c>
@@ -20649,7 +18031,7 @@
         <v>3.4794722276591097E-2</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>524</v>
       </c>
@@ -20680,7 +18062,7 @@
         <v/>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>524</v>
       </c>
@@ -20711,7 +18093,7 @@
         <v>2.18353269949315E-2</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>472</v>
       </c>
@@ -20742,7 +18124,7 @@
         <v/>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>472</v>
       </c>
@@ -20773,7 +18155,7 @@
         <v>0.14652791223922301</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>577</v>
       </c>
@@ -20804,7 +18186,7 @@
         <v/>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>577</v>
       </c>
@@ -20835,7 +18217,7 @@
         <v>-4.8360876389221801E-3</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>537</v>
       </c>
@@ -20866,7 +18248,7 @@
         <v/>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>537</v>
       </c>
@@ -20897,7 +18279,7 @@
         <v>4.5800836094280699E-2</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>624</v>
       </c>
@@ -20928,7 +18310,7 @@
         <v/>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>624</v>
       </c>
@@ -20959,7 +18341,7 @@
         <v>0.66394342754951896</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>454</v>
       </c>
@@ -20990,7 +18372,7 @@
         <v/>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>454</v>
       </c>
@@ -21021,7 +18403,7 @@
         <v>4.9111154553401697E-2</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>478</v>
       </c>
@@ -21052,7 +18434,7 @@
         <v/>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>478</v>
       </c>
@@ -21083,7 +18465,7 @@
         <v>4.5773647198437503E-2</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>450</v>
       </c>
@@ -21114,7 +18496,7 @@
         <v/>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>450</v>
       </c>
@@ -21145,7 +18527,7 @@
         <v>0.74752073406099595</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>452</v>
       </c>
@@ -21176,7 +18558,7 @@
         <v/>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>452</v>
       </c>
@@ -21207,7 +18589,7 @@
         <v>9.2744930044196899E-2</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>454</v>
       </c>
@@ -21238,7 +18620,7 @@
         <v/>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>454</v>
       </c>
@@ -21269,7 +18651,7 @@
         <v>2.84513981702877E-2</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>476</v>
       </c>
@@ -21300,7 +18682,7 @@
         <v/>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>476</v>
       </c>
@@ -21331,7 +18713,7 @@
         <v>0.112208189526129</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>593</v>
       </c>
@@ -21362,7 +18744,7 @@
         <v/>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>593</v>
       </c>
@@ -21393,7 +18775,7 @@
         <v>0.11740285497193299</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>436</v>
       </c>
@@ -21424,7 +18806,7 @@
         <v/>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>436</v>
       </c>
@@ -21455,7 +18837,7 @@
         <v>3.5372111666611999E-2</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>493</v>
       </c>
@@ -21486,7 +18868,7 @@
         <v/>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>493</v>
       </c>
@@ -21517,7 +18899,7 @@
         <v>0.34750397544992301</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>478</v>
       </c>
@@ -21548,7 +18930,7 @@
         <v/>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>478</v>
       </c>
@@ -21579,7 +18961,7 @@
         <v>2.2581695121362599E-2</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>438</v>
       </c>
@@ -21610,7 +18992,7 @@
         <v/>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>438</v>
       </c>
@@ -21641,7 +19023,7 @@
         <v>0.21449039033634801</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>440</v>
       </c>
@@ -21672,7 +19054,7 @@
         <v/>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>440</v>
       </c>
@@ -21703,7 +19085,7 @@
         <v>5.05503957238796E-2</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>496</v>
       </c>
@@ -21734,7 +19116,7 @@
         <v/>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>496</v>
       </c>
@@ -21765,7 +19147,7 @@
         <v>0.27475969966599501</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>521</v>
       </c>
@@ -21796,7 +19178,7 @@
         <v/>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>521</v>
       </c>
@@ -21827,7 +19209,7 @@
         <v>3.7382006191042198E-2</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>460</v>
       </c>
@@ -21858,7 +19240,7 @@
         <v/>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>460</v>
       </c>
@@ -21889,7 +19271,7 @@
         <v>0.21978639478949299</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>551</v>
       </c>
@@ -21920,7 +19302,7 @@
         <v/>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>551</v>
       </c>
@@ -21951,7 +19333,7 @@
         <v>6.4237959174690398E-2</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>521</v>
       </c>
@@ -21982,7 +19364,7 @@
         <v/>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>521</v>
       </c>
@@ -22013,7 +19395,7 @@
         <v>0.115811864448428</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>589</v>
       </c>
@@ -22044,7 +19426,7 @@
         <v/>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>589</v>
       </c>
@@ -22075,7 +19457,7 @@
         <v>0.683740194691424</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>438</v>
       </c>
@@ -22106,7 +19488,7 @@
         <v/>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>438</v>
       </c>
@@ -22137,7 +19519,7 @@
         <v>0.50827340852324099</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>598</v>
       </c>
@@ -22168,7 +19550,7 @@
         <v/>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>598</v>
       </c>
@@ -22199,7 +19581,7 @@
         <v>0.29684070632263099</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>458</v>
       </c>
@@ -22230,7 +19612,7 @@
         <v/>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>458</v>
       </c>
@@ -22261,7 +19643,7 @@
         <v>2.2492287930367099E-2</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>521</v>
       </c>
@@ -22292,7 +19674,7 @@
         <v/>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>521</v>
       </c>
@@ -22323,7 +19705,7 @@
         <v>1.4935576742238299E-2</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>476</v>
       </c>
@@ -22354,7 +19736,7 @@
         <v/>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>476</v>
       </c>
@@ -22385,7 +19767,7 @@
         <v>0.62004052862391601</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>632</v>
       </c>
@@ -22416,7 +19798,7 @@
         <v/>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>632</v>
       </c>
@@ -22447,7 +19829,7 @@
         <v>9.0057521693490905E-2</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>452</v>
       </c>
@@ -22478,7 +19860,7 @@
         <v/>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>452</v>
       </c>
@@ -22509,7 +19891,7 @@
         <v>7.3980427133683996E-2</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>446</v>
       </c>
@@ -22540,7 +19922,7 @@
         <v/>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>446</v>
       </c>
@@ -22571,7 +19953,7 @@
         <v>0.13363049221526199</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="J424" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -22581,7 +19963,7 @@
         <v/>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="J425" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -22591,7 +19973,7 @@
         <v/>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="J426" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -22601,7 +19983,7 @@
         <v/>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="J427" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -22611,7 +19993,7 @@
         <v/>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="J428" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -22621,7 +20003,7 @@
         <v/>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="J429" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -22631,7 +20013,7 @@
         <v/>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="J430" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -22641,7 +20023,7 @@
         <v/>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="J431" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -22651,7 +20033,7 @@
         <v/>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="J432" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -22661,7 +20043,7 @@
         <v/>
       </c>
     </row>
-    <row r="433" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="10:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="J433" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -22671,7 +20053,7 @@
         <v/>
       </c>
     </row>
-    <row r="434" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="10:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="J434" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -22681,7 +20063,7 @@
         <v/>
       </c>
     </row>
-    <row r="435" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="10:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="J435" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -22691,7 +20073,7 @@
         <v/>
       </c>
     </row>
-    <row r="436" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="10:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="J436" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -22701,7 +20083,7 @@
         <v/>
       </c>
     </row>
-    <row r="437" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="10:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="J437" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -22711,7 +20093,7 @@
         <v/>
       </c>
     </row>
-    <row r="438" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="10:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="J438" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -22721,7 +20103,7 @@
         <v/>
       </c>
     </row>
-    <row r="439" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="10:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="J439" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -22731,7 +20113,7 @@
         <v/>
       </c>
     </row>
-    <row r="440" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="10:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="J440" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -22741,7 +20123,7 @@
         <v/>
       </c>
     </row>
-    <row r="441" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="10:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="J441" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -22751,7 +20133,7 @@
         <v/>
       </c>
     </row>
-    <row r="442" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="10:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="J442" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -22761,7 +20143,7 @@
         <v/>
       </c>
     </row>
-    <row r="443" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="10:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="J443" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -22771,7 +20153,7 @@
         <v/>
       </c>
     </row>
-    <row r="444" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="10:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="J444" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -22781,7 +20163,7 @@
         <v/>
       </c>
     </row>
-    <row r="445" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="10:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="J445" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -22791,7 +20173,7 @@
         <v/>
       </c>
     </row>
-    <row r="446" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="10:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="J446" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -22801,7 +20183,7 @@
         <v/>
       </c>
     </row>
-    <row r="447" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="10:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="J447" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -22811,7 +20193,7 @@
         <v/>
       </c>
     </row>
-    <row r="448" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="10:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="J448" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -22821,7 +20203,7 @@
         <v/>
       </c>
     </row>
-    <row r="449" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="10:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="J449" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -22832,6 +20214,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K449">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="y_(60,"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/STAR_model/Book1 (Autosaved).xlsx
+++ b/STAR_model/Book1 (Autosaved).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (2)" sheetId="4" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8256" uniqueCount="635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8258" uniqueCount="637">
   <si>
     <t>mean</t>
   </si>
@@ -1939,6 +1939,12 @@
   <si>
     <t>y_a_t_1</t>
   </si>
+  <si>
+    <t>Median test</t>
+  </si>
+  <si>
+    <t>Median training</t>
+  </si>
 </sst>
 </file>
 
@@ -2063,17 +2069,1349 @@
               <c:f>'R2_arcs'!$J$2:$J$450</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="449"/>
                 <c:pt idx="0">
-                  <c:v>0.22057568558833501</c:v>
+                  <c:v>0.113937401308318</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.115138701334147</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4613922509982899E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.8077320469345504E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.192546680447373</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.51754948674235E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.2923432640518099E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.156194641127606</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.7255004541081597E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.13761231403951199</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.270965690334104</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.89018211993086E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.0968569327597698E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.405299571671211</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.221061557241643</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.35225163275372401</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.3590369978092801E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.5518440027932202E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.14625149963985201</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.15757858086922499</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.83036122012125E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.55435591484227398</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.72951976326748103</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.10229564986187201</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.146242819210647</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.74680174590361403</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.61177930543696302</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.4157936347740201E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.07756323295077E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>9.1885035391800998E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.57167713523074704</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>7.4381895498300293E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.19215613117928099</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.419815534938006</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.52713980669472804</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>9.4302806202788803E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.189742510492688</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-3.4739727248363099E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.8451283593428701E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.53113879098188399</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4.0624036452459801E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>6.4508389733493904E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>4.6050926951135898E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.17449543456844399</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>5.9417811404887E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>7.62244236669192E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>8.7471961103504303E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.5062780251906801E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.511148608104942</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.276608169835246</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.230333569153648</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.31892214077901199</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.27964647233595102</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>3.3780969263976703E-2</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>3.8152246668341099E-2</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2.3433197745494599E-2</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1.44362027126712E-2</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>7.9645377640584603E-2</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.11548475508413</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.11994635926394399</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>9.6759727182762101E-2</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>8.2411356233330606E-3</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.42320666655246097</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>2.42399854670367E-2</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>4.0930649909654997E-2</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>8.5383774647794897E-2</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>5.70176727899218E-3</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>3.23056451040186E-2</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.59530353040542805</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.399300447054383</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.53596117911791796</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.44298110633479598</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.428124018154665</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.29868866768374602</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>1.44594271149137E-2</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>2.7228517089530301E-2</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>3.91377454210627E-2</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>6.0834132727898199E-2</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>2.3945340333289499E-2</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>2.6295123692067102E-2</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0.35538447577486298</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>4.2993955769177099E-3</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>1.7634171471871501E-2</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>3.8798359601999698E-2</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>6.8630130727920097E-2</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>8.3146077433826696E-2</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0.179387396622191</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>5.91336116940138E-2</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>3.45448880841287E-2</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0.27790122744379903</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0.12926053719425701</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0.19304910441165299</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0.37011084124326099</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0.22854108488345001</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>0.20652299642499899</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0.23279743210531301</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>2.80530676094779E-2</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0.12846419526780301</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>4.32729124223694E-2</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>0.22057568558833501</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>2.7556618557052399E-2</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>0.124840939306031</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>5.4709522964450703E-2</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>0.598076733641834</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>0.71044194252590898</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>5.1051826013200602E-2</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>3.6565229651478397E-2</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>0.115910598771855</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>0.61810274196374304</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>5.90572709828103E-2</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>0.156022101103405</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>6.2987380314322203E-2</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>0.59834640018690599</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>0.13226154387321301</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>0.43732975265339902</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>0.115845129065632</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>0.67023036321612095</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>9.7657336460815994E-2</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>1.2430137003962101E-2</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>5.6248938782669899E-2</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="248">
                   <c:v>5.0444486442229902E-2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="249">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>6.7369383179504402E-2</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>1.2762913256844401E-2</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>0.10671463516841601</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>-2.18621165808641E-3</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>0.124942879379039</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>0.111102329083133</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>0.143355787582953</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>0.20133666232588801</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>0.11654261680141501</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>0.10123278802055399</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>3.21345162426784E-2</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>6.8675630570060403E-2</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>0.50897900683009101</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>3.31511118869817E-2</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>0.44690161322761401</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>6.1234009929905998E-2</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>0.13982047639779799</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>0.38864640289124402</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>5.4298055014617999E-2</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>0.24069074805164101</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>2.8375705522022E-2</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>9.0989031316698298E-3</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>8.9729836656034595E-2</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>0.124081282596916</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>0.71615747028055299</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>0.15862572861826699</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>0.67929082133628305</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>4.8184283658033601E-2</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>1.7364404971537101E-2</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>1.3028019229993901E-2</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>9.08125926890474E-2</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>0.49235339822682</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>2.2937578302057601E-2</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>0.409542461402575</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>1.9655134879903599E-2</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>8.1944291147727E-2</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>0.105043570759837</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>0.65645457972556098</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>2.6000551778142599E-2</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>-1.8351692123186301E-4</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>7.7541414477092105E-2</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>0.15245532864508399</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>2.0724253448902E-2</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>0.20924300627787501</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>0.14361800154642501</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>3.5963974451986402E-2</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>8.1747068073672297E-2</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>0.75484641438043498</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>6.1994370816568202E-2</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>0.101495159742543</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>7.7341396311195701E-2</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>0.16063694296582001</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>0.33646178561443302</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>8.7914711578274907E-2</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>3.8995685779146999E-2</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>1.55811962075964E-2</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>0.180568398850252</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>4.7351339427058603E-3</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>6.3213711547474294E-2</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>0.66032112870384596</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>5.9913836582098701E-2</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>4.0469221044295997E-2</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>0.74058425066250799</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>8.7110781306506097E-2</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>1.70655609628752E-2</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>9.1645983499703806E-2</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>0.11700142082189501</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>2.5627198479226E-2</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>0.35093643276238901</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>1.8396964289470599E-2</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>0.24106399433602699</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>5.1946857930228102E-2</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>0.283419319591386</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>3.4021489681474601E-2</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>0.21244757928652</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>6.2468311125492698E-2</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>0.119957500613534</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>0.73511162658190798</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>0.49656430372174698</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>0.31108089789121501</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>3.6925852397192697E-2</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>1.2331501756469999E-2</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>0.62522400268294898</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>9.9873110692021497E-2</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>9.4017410479400196E-2</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>0.13040233916048999</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="447">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2122,18 +3460,1350 @@
               <c:f>'R2_arcs'!$K$2:$K$450</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="449"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.23909198639231699</c:v>
+                  <c:v>8.4217104882607294E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>8.0419935593456393E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7599436389759901E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.3226261666723797E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.162800795236799</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.7392801746103001E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.4347672842669298E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.130112413335083</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.5344320301279198E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.125377509977392</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.27907488491931898</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.9590618226073008E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.4314253453454608E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.39567705625388899</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.22735427981200099</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.35809717840654898</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.50271463351913E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.6680428314570199E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.154931500077365</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.15292078105972901</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.32834884305921E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.55128144411534796</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.72010090270087901</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.102192737733484</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.12704565173565399</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.73076049381561503</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.58005984774991703</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.82638038179106E-3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.1405143430748201E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>7.5257193881482595E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.56452431983873796</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>7.6983163411634595E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.18723201002034101</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.40632411659558798</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.53922655720094403</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>8.8974500975424503E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.18153484679557799</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-2.2663900837771301E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.8781077162904201E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.52474856409121295</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>5.3642453979674598E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>6.5995294602781696E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>5.5313230297753098E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.14430177719083601</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>4.3436686946944802E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>6.6662857332200703E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>6.82577907287365E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>6.6437542512227596E-3</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.51298296615665695</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.25018210637175198</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.219086689806756</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.336865197327056</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.29112752146336601</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2.88905658615429E-2</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>3.4213246894859897E-2</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2.1291493452597499E-2</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1.62827168030346E-2</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>3.70665103991124E-2</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.10609021112108</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.13096449396217</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.11474008893764</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1.44874879448203E-2</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.416027103939138</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1.6783241797977098E-2</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>5.1792668112842499E-2</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>9.8400096349725102E-2</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>3.3080785145229701E-3</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1.7102637677398801E-2</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.58798492378849398</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.39987859793346597</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.55838560369967105</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.43028429512844102</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.41842340341522499</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0.30926333217565799</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>5.48176435983227E-3</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>3.04480479664237E-2</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>4.1765791906158797E-2</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>7.5620372217818393E-2</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>3.5186627898693999E-2</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>2.6849628799169099E-2</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.355941553279425</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>-2.5680819914275499E-4</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>2.6240202684572701E-2</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>4.0963546984831699E-2</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>6.2759110242531002E-2</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>6.4999012021411104E-2</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0.18653785671464901</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>7.1986655582303202E-2</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>3.8682633333333598E-2</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0.28680073810968898</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0.110678278964163</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0.188420466308547</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0.38515594984394502</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0.211473049388856</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0.23534911820118801</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0.21380080881182301</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>1.07306569001925E-2</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0.15036803508378199</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>3.6988843181743503E-2</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>0.23909198639231699</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>3.0992665161142501E-2</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>0.130026530649588</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>5.1530792268256902E-2</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>0.57149312993527801</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>0.70533864010587</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>4.68749700076748E-2</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>2.7123883002756002E-2</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>0.1071652582</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>0.61153601932037305</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>4.3099879226907001E-2</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>0.11765659582571</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>5.2474628107678598E-2</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>0.59978934427637398</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>0.16893761177698399</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>0.45653065194964898</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>8.6365322361737398E-2</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>0.65899250476194204</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>7.3751994890095304E-2</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>8.8617630880681794E-3</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>5.5515952844511697E-2</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>-1.7099863201064299E-4</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="249">
                   <c:v>4.2188844065325297E-2</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>6.6592991379887306E-2</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>2.0317865311469001E-2</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>9.3884916837162602E-2</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>-1.15858580100325E-3</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>0.123942465209907</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>0.113529067792527</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>0.10637966646892701</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>0.17774508885633999</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>9.4199403423891201E-2</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>0.10948156274791</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>3.2244823452726702E-2</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>4.9986709328073899E-2</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>0.52177507396368705</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>1.9229471291460999E-2</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>0.44525370559726901</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>6.3098186519781801E-2</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>0.15796651878130999</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>0.371092366993859</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>5.8596298502659003E-2</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>0.205364056456941</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>2.1930018015920299E-2</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>8.3364020607327102E-3</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>8.0115448954193202E-2</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>0.13275643253366601</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>0.69001096410876195</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>0.166208864653697</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>0.67661330354522797</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>5.0588160588401702E-2</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>2.16531439841601E-2</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>1.5858144408732401E-3</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>7.8831570908862503E-2</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>0.51881491097064603</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>1.15308143563913E-2</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>0.43771448368660698</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>1.8954500525621198E-2</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>7.4083236229407406E-2</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>0.108631090986502</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>0.68167038704932104</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>1.1521118551088901E-2</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>5.3155631462331598E-4</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>7.1610149383338803E-2</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>0.128880627979644</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>2.4171206080082198E-2</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>0.184882821131896</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>0.130491807883063</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>3.6297424415627402E-2</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>8.1685409893697797E-2</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>0.75155006301221505</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>-3.1680780044101201E-2</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>8.1523655507217005E-2</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>9.3750770151155793E-2</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>0.13354317291930101</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>0.35427599265896997</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>8.9359223606093496E-2</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>3.4794722276591097E-2</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>2.18353269949315E-2</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>0.14652791223922301</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>-4.8360876389221801E-3</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>4.5800836094280699E-2</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>0.66394342754951896</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>4.9111154553401697E-2</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>4.5773647198437503E-2</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>0.74752073406099595</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>9.2744930044196899E-2</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>2.84513981702877E-2</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>0.112208189526129</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>0.11740285497193299</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>3.5372111666611999E-2</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>0.34750397544992301</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>2.2581695121362599E-2</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>0.21449039033634801</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>5.05503957238796E-2</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>0.27475969966599501</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>3.7382006191042198E-2</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>0.21978639478949299</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>6.4237959174690398E-2</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>0.115811864448428</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>0.683740194691424</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>0.50827340852324099</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>0.29684070632263099</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>2.2492287930367099E-2</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>1.4935576742238299E-2</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>0.62004052862391601</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>9.0057521693490905E-2</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>7.3980427133683996E-2</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>0.13363049221526199</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2148,11 +4818,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="457271032"/>
-        <c:axId val="457271816"/>
+        <c:axId val="500920624"/>
+        <c:axId val="500922192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="457271032"/>
+        <c:axId val="500920624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="450"/>
@@ -2209,12 +4879,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="457271816"/>
+        <c:crossAx val="500922192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="457271816"/>
+        <c:axId val="500922192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2271,7 +4941,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="457271032"/>
+        <c:crossAx val="500920624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4494,11 +7164,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="457279656"/>
-        <c:axId val="457273776"/>
+        <c:axId val="500925328"/>
+        <c:axId val="500925720"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="457279656"/>
+        <c:axId val="500925328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="350"/>
@@ -4555,12 +7225,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="457273776"/>
+        <c:crossAx val="500925720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="457273776"/>
+        <c:axId val="500925720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4617,7 +7287,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="457279656"/>
+        <c:crossAx val="500925328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6185,11 +8855,11 @@
         <v>1.0008999999999999</v>
       </c>
       <c r="J2">
-        <f>ABS(B2)</f>
+        <f t="shared" ref="J2:J11" si="0">ABS(B2)</f>
         <v>55.787999999999997</v>
       </c>
       <c r="K2" s="1">
-        <f>C2/ABS(B2)</f>
+        <f t="shared" ref="K2:K11" si="1">C2/ABS(B2)</f>
         <v>19.207775865777588</v>
       </c>
       <c r="L2" t="e">
@@ -6197,7 +8867,7 @@
         <v>#N/A</v>
       </c>
       <c r="M2" t="e">
-        <f>J2*L2</f>
+        <f t="shared" ref="M2:M11" si="2">J2*L2</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -6227,11 +8897,11 @@
         <v>1.0009999999999999</v>
       </c>
       <c r="J3">
-        <f>ABS(B3)</f>
+        <f t="shared" si="0"/>
         <v>9.2303999999999995</v>
       </c>
       <c r="K3" s="1">
-        <f>C3/ABS(B3)</f>
+        <f t="shared" si="1"/>
         <v>11.610493586410124</v>
       </c>
       <c r="L3">
@@ -6239,7 +8909,7 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <f>J3*L3</f>
+        <f t="shared" si="2"/>
         <v>9.2303999999999995</v>
       </c>
     </row>
@@ -6269,11 +8939,11 @@
         <v>1.0129999999999999</v>
       </c>
       <c r="J4">
-        <f>ABS(B4)</f>
+        <f t="shared" si="0"/>
         <v>3.1311</v>
       </c>
       <c r="K4" s="1">
-        <f>C4/ABS(B4)</f>
+        <f t="shared" si="1"/>
         <v>0.48107693781738048</v>
       </c>
       <c r="L4">
@@ -6281,7 +8951,7 @@
         <v>0.63086900000000001</v>
       </c>
       <c r="M4">
-        <f>J4*L4</f>
+        <f t="shared" si="2"/>
         <v>1.9753139259000001</v>
       </c>
     </row>
@@ -6311,11 +8981,11 @@
         <v>1.0082</v>
       </c>
       <c r="J5">
-        <f>ABS(B5)</f>
+        <f t="shared" si="0"/>
         <v>2.5082</v>
       </c>
       <c r="K5" s="1">
-        <f>C5/ABS(B5)</f>
+        <f t="shared" si="1"/>
         <v>0.14927039311059725</v>
       </c>
       <c r="L5" t="e">
@@ -6323,7 +8993,7 @@
         <v>#N/A</v>
       </c>
       <c r="M5" t="e">
-        <f>J5*L5</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -6353,11 +9023,11 @@
         <v>1.0117</v>
       </c>
       <c r="J6">
-        <f>ABS(B6)</f>
+        <f t="shared" si="0"/>
         <v>1.8634999999999999</v>
       </c>
       <c r="K6" s="1">
-        <f>C6/ABS(B6)</f>
+        <f t="shared" si="1"/>
         <v>0.44834987925945802</v>
       </c>
       <c r="L6">
@@ -6365,7 +9035,7 @@
         <v>0.55155600000000005</v>
       </c>
       <c r="M6">
-        <f>J6*L6</f>
+        <f t="shared" si="2"/>
         <v>1.027824606</v>
       </c>
     </row>
@@ -6395,11 +9065,11 @@
         <v>1.0186999999999999</v>
       </c>
       <c r="J7">
-        <f>ABS(B7)</f>
+        <f t="shared" si="0"/>
         <v>1.3729</v>
       </c>
       <c r="K7" s="1">
-        <f>C7/ABS(B7)</f>
+        <f t="shared" si="1"/>
         <v>1.198776312914269</v>
       </c>
       <c r="L7">
@@ -6407,7 +9077,7 @@
         <v>0.64278500000000005</v>
       </c>
       <c r="M7">
-        <f>J7*L7</f>
+        <f t="shared" si="2"/>
         <v>0.88247952650000006</v>
       </c>
     </row>
@@ -6437,11 +9107,11 @@
         <v>1.0065</v>
       </c>
       <c r="J8">
-        <f>ABS(B8)</f>
+        <f t="shared" si="0"/>
         <v>1.0737000000000001</v>
       </c>
       <c r="K8" s="1">
-        <f>C8/ABS(B8)</f>
+        <f t="shared" si="1"/>
         <v>1.0274750861506938</v>
       </c>
       <c r="L8">
@@ -6449,7 +9119,7 @@
         <v>0.69007399999999997</v>
       </c>
       <c r="M8">
-        <f>J8*L8</f>
+        <f t="shared" si="2"/>
         <v>0.74093245380000006</v>
       </c>
     </row>
@@ -6479,11 +9149,11 @@
         <v>1.0009999999999999</v>
       </c>
       <c r="J9">
-        <f>ABS(B9)</f>
+        <f t="shared" si="0"/>
         <v>0.77210000000000001</v>
       </c>
       <c r="K9" s="1">
-        <f>C9/ABS(B9)</f>
+        <f t="shared" si="1"/>
         <v>0.50524543452920601</v>
       </c>
       <c r="L9" t="e">
@@ -6491,7 +9161,7 @@
         <v>#N/A</v>
       </c>
       <c r="M9" t="e">
-        <f>J9*L9</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -6521,11 +9191,11 @@
         <v>1.0004</v>
       </c>
       <c r="J10">
-        <f>ABS(B10)</f>
+        <f t="shared" si="0"/>
         <v>0.45960000000000001</v>
       </c>
       <c r="K10" s="1">
-        <f>C10/ABS(B10)</f>
+        <f t="shared" si="1"/>
         <v>0.98868581375108799</v>
       </c>
       <c r="L10">
@@ -6533,7 +9203,7 @@
         <v>0.42227300000000001</v>
       </c>
       <c r="M10">
-        <f>J10*L10</f>
+        <f t="shared" si="2"/>
         <v>0.19407667080000002</v>
       </c>
     </row>
@@ -6563,11 +9233,11 @@
         <v>1.0031000000000001</v>
       </c>
       <c r="J11">
-        <f>ABS(B11)</f>
+        <f t="shared" si="0"/>
         <v>0.33550000000000002</v>
       </c>
       <c r="K11" s="1">
-        <f>C11/ABS(B11)</f>
+        <f t="shared" si="1"/>
         <v>1.1076005961251862</v>
       </c>
       <c r="L11">
@@ -6575,7 +9245,7 @@
         <v>0.37740600000000002</v>
       </c>
       <c r="M11">
-        <f>J11*L11</f>
+        <f t="shared" si="2"/>
         <v>0.12661971300000002</v>
       </c>
     </row>
@@ -6835,10 +9505,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:K449"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
@@ -6857,7 +9526,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>434</v>
       </c>
@@ -6895,7 +9564,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>434</v>
       </c>
@@ -6933,7 +9602,7 @@
         <v>8.4217104882607294E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>434</v>
       </c>
@@ -6964,7 +9633,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>434</v>
       </c>
@@ -6995,7 +9664,7 @@
         <v>8.0419935593456393E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>436</v>
       </c>
@@ -7026,7 +9695,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>436</v>
       </c>
@@ -7057,7 +9726,7 @@
         <v>1.7599436389759901E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>438</v>
       </c>
@@ -7088,7 +9757,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>438</v>
       </c>
@@ -7119,7 +9788,7 @@
         <v>8.3226261666723797E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>442</v>
       </c>
@@ -7150,7 +9819,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>442</v>
       </c>
@@ -7181,7 +9850,7 @@
         <v>0.162800795236799</v>
       </c>
     </row>
-    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>442</v>
       </c>
@@ -7212,7 +9881,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>442</v>
       </c>
@@ -7243,7 +9912,7 @@
         <v>6.7392801746103001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>440</v>
       </c>
@@ -7274,7 +9943,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>440</v>
       </c>
@@ -7305,7 +9974,7 @@
         <v>3.4347672842669298E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>446</v>
       </c>
@@ -7336,7 +10005,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>446</v>
       </c>
@@ -7367,7 +10036,7 @@
         <v>0.130112413335083</v>
       </c>
     </row>
-    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>448</v>
       </c>
@@ -7398,7 +10067,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>448</v>
       </c>
@@ -7429,7 +10098,7 @@
         <v>5.5344320301279198E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>487</v>
       </c>
@@ -7460,7 +10129,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>487</v>
       </c>
@@ -7491,7 +10160,7 @@
         <v>0.125377509977392</v>
       </c>
     </row>
-    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>452</v>
       </c>
@@ -7522,7 +10191,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>452</v>
       </c>
@@ -7553,7 +10222,7 @@
         <v>0.27907488491931898</v>
       </c>
     </row>
-    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>454</v>
       </c>
@@ -7584,7 +10253,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>454</v>
       </c>
@@ -7615,7 +10284,7 @@
         <v>8.9590618226073008E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>456</v>
       </c>
@@ -7646,7 +10315,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>456</v>
       </c>
@@ -7677,7 +10346,7 @@
         <v>9.4314253453454608E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>440</v>
       </c>
@@ -7708,7 +10377,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>440</v>
       </c>
@@ -7739,7 +10408,7 @@
         <v>0.39567705625388899</v>
       </c>
     </row>
-    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>458</v>
       </c>
@@ -7770,7 +10439,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>458</v>
       </c>
@@ -7801,7 +10470,7 @@
         <v>0.22735427981200099</v>
       </c>
     </row>
-    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>460</v>
       </c>
@@ -7832,7 +10501,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>460</v>
       </c>
@@ -7863,7 +10532,7 @@
         <v>0.35809717840654898</v>
       </c>
     </row>
-    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>462</v>
       </c>
@@ -7894,7 +10563,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>462</v>
       </c>
@@ -7925,7 +10594,7 @@
         <v>1.50271463351913E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>436</v>
       </c>
@@ -7956,7 +10625,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>436</v>
       </c>
@@ -7987,7 +10656,7 @@
         <v>4.6680428314570199E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>446</v>
       </c>
@@ -8018,7 +10687,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>446</v>
       </c>
@@ -8049,7 +10718,7 @@
         <v>0.154931500077365</v>
       </c>
     </row>
-    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>466</v>
       </c>
@@ -8080,7 +10749,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>466</v>
       </c>
@@ -8111,7 +10780,7 @@
         <v>0.15292078105972901</v>
       </c>
     </row>
-    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>440</v>
       </c>
@@ -8142,7 +10811,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>440</v>
       </c>
@@ -8173,7 +10842,7 @@
         <v>1.32834884305921E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>470</v>
       </c>
@@ -8204,7 +10873,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>470</v>
       </c>
@@ -8235,7 +10904,7 @@
         <v>0.55128144411534796</v>
       </c>
     </row>
-    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>476</v>
       </c>
@@ -8266,7 +10935,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>476</v>
       </c>
@@ -8297,7 +10966,7 @@
         <v>0.72010090270087901</v>
       </c>
     </row>
-    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>472</v>
       </c>
@@ -8328,7 +10997,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>472</v>
       </c>
@@ -8359,7 +11028,7 @@
         <v>0.102192737733484</v>
       </c>
     </row>
-    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>474</v>
       </c>
@@ -8390,7 +11059,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>474</v>
       </c>
@@ -8421,7 +11090,7 @@
         <v>0.12704565173565399</v>
       </c>
     </row>
-    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>476</v>
       </c>
@@ -8452,7 +11121,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>476</v>
       </c>
@@ -8483,7 +11152,7 @@
         <v>0.73076049381561503</v>
       </c>
     </row>
-    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>478</v>
       </c>
@@ -8514,7 +11183,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>478</v>
       </c>
@@ -8545,7 +11214,7 @@
         <v>0.58005984774991703</v>
       </c>
     </row>
-    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>490</v>
       </c>
@@ -8576,7 +11245,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>490</v>
       </c>
@@ -8607,7 +11276,7 @@
         <v>2.82638038179106E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>452</v>
       </c>
@@ -8638,7 +11307,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>452</v>
       </c>
@@ -8669,7 +11338,7 @@
         <v>5.1405143430748201E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>481</v>
       </c>
@@ -8700,7 +11369,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>481</v>
       </c>
@@ -8731,7 +11400,7 @@
         <v>7.5257193881482595E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>483</v>
       </c>
@@ -8762,7 +11431,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>483</v>
       </c>
@@ -8793,7 +11462,7 @@
         <v>0.56452431983873796</v>
       </c>
     </row>
-    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>474</v>
       </c>
@@ -8824,7 +11493,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>474</v>
       </c>
@@ -8855,7 +11524,7 @@
         <v>7.6983163411634595E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>493</v>
       </c>
@@ -8886,7 +11555,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>493</v>
       </c>
@@ -8917,7 +11586,7 @@
         <v>0.18723201002034101</v>
       </c>
     </row>
-    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>440</v>
       </c>
@@ -8948,7 +11617,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>440</v>
       </c>
@@ -8979,7 +11648,7 @@
         <v>0.40632411659558798</v>
       </c>
     </row>
-    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>496</v>
       </c>
@@ -9010,7 +11679,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>496</v>
       </c>
@@ -9041,7 +11710,7 @@
         <v>0.53922655720094403</v>
       </c>
     </row>
-    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>498</v>
       </c>
@@ -9072,7 +11741,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>498</v>
       </c>
@@ -9103,7 +11772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>446</v>
       </c>
@@ -9134,7 +11803,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>446</v>
       </c>
@@ -9165,7 +11834,7 @@
         <v>8.8974500975424503E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>469</v>
       </c>
@@ -9196,7 +11865,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>469</v>
       </c>
@@ -9227,7 +11896,7 @@
         <v>0.18153484679557799</v>
       </c>
     </row>
-    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>483</v>
       </c>
@@ -9258,7 +11927,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>483</v>
       </c>
@@ -9289,7 +11958,7 @@
         <v>-2.2663900837771301E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>442</v>
       </c>
@@ -9320,7 +11989,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>442</v>
       </c>
@@ -9351,7 +12020,7 @@
         <v>1.8781077162904201E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>438</v>
       </c>
@@ -9382,7 +12051,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>438</v>
       </c>
@@ -9413,7 +12082,7 @@
         <v>0.52474856409121295</v>
       </c>
     </row>
-    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>466</v>
       </c>
@@ -9444,7 +12113,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>466</v>
       </c>
@@ -9475,7 +12144,7 @@
         <v>5.3642453979674598E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>450</v>
       </c>
@@ -9506,7 +12175,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>450</v>
       </c>
@@ -9537,7 +12206,7 @@
         <v>6.5995294602781696E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>506</v>
       </c>
@@ -9568,7 +12237,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>506</v>
       </c>
@@ -9599,7 +12268,7 @@
         <v>5.5313230297753098E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>508</v>
       </c>
@@ -9630,7 +12299,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>508</v>
       </c>
@@ -9661,7 +12330,7 @@
         <v>0.14430177719083601</v>
       </c>
     </row>
-    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>490</v>
       </c>
@@ -9692,7 +12361,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>490</v>
       </c>
@@ -9723,7 +12392,7 @@
         <v>4.3436686946944802E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>496</v>
       </c>
@@ -9754,7 +12423,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>496</v>
       </c>
@@ -9785,7 +12454,7 @@
         <v>6.6662857332200703E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>434</v>
       </c>
@@ -9816,7 +12485,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>434</v>
       </c>
@@ -9847,7 +12516,7 @@
         <v>6.82577907287365E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>448</v>
       </c>
@@ -9878,7 +12547,7 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>448</v>
       </c>
@@ -9909,7 +12578,7 @@
         <v>6.6437542512227596E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>438</v>
       </c>
@@ -9940,7 +12609,7 @@
         <v/>
       </c>
     </row>
-    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>438</v>
       </c>
@@ -9971,7 +12640,7 @@
         <v>0.51298296615665695</v>
       </c>
     </row>
-    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>436</v>
       </c>
@@ -10002,7 +12671,7 @@
         <v/>
       </c>
     </row>
-    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>436</v>
       </c>
@@ -10033,7 +12702,7 @@
         <v>0.25018210637175198</v>
       </c>
     </row>
-    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>462</v>
       </c>
@@ -10064,7 +12733,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>462</v>
       </c>
@@ -10095,7 +12764,7 @@
         <v>0.219086689806756</v>
       </c>
     </row>
-    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>517</v>
       </c>
@@ -10126,7 +12795,7 @@
         <v/>
       </c>
     </row>
-    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>517</v>
       </c>
@@ -10157,7 +12826,7 @@
         <v>0.336865197327056</v>
       </c>
     </row>
-    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>452</v>
       </c>
@@ -10188,7 +12857,7 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>452</v>
       </c>
@@ -10219,7 +12888,7 @@
         <v>0.29112752146336601</v>
       </c>
     </row>
-    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>498</v>
       </c>
@@ -10250,7 +12919,7 @@
         <v/>
       </c>
     </row>
-    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>498</v>
       </c>
@@ -10281,7 +12950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>438</v>
       </c>
@@ -10312,7 +12981,7 @@
         <v/>
       </c>
     </row>
-    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>438</v>
       </c>
@@ -10343,7 +13012,7 @@
         <v>2.88905658615429E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>521</v>
       </c>
@@ -10374,7 +13043,7 @@
         <v/>
       </c>
     </row>
-    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>521</v>
       </c>
@@ -10405,7 +13074,7 @@
         <v>3.4213246894859897E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>522</v>
       </c>
@@ -10436,7 +13105,7 @@
         <v/>
       </c>
     </row>
-    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>522</v>
       </c>
@@ -10467,7 +13136,7 @@
         <v>2.1291493452597499E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>454</v>
       </c>
@@ -10498,7 +13167,7 @@
         <v/>
       </c>
     </row>
-    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>454</v>
       </c>
@@ -10529,7 +13198,7 @@
         <v>1.62827168030346E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>446</v>
       </c>
@@ -10560,7 +13229,7 @@
         <v/>
       </c>
     </row>
-    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>446</v>
       </c>
@@ -10591,7 +13260,7 @@
         <v>3.70665103991124E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>474</v>
       </c>
@@ -10622,7 +13291,7 @@
         <v/>
       </c>
     </row>
-    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>474</v>
       </c>
@@ -10653,7 +13322,7 @@
         <v>0.10609021112108</v>
       </c>
     </row>
-    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>524</v>
       </c>
@@ -10684,7 +13353,7 @@
         <v/>
       </c>
     </row>
-    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>524</v>
       </c>
@@ -10715,7 +13384,7 @@
         <v>0.13096449396217</v>
       </c>
     </row>
-    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>458</v>
       </c>
@@ -10746,7 +13415,7 @@
         <v/>
       </c>
     </row>
-    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>458</v>
       </c>
@@ -10777,7 +13446,7 @@
         <v>0.11474008893764</v>
       </c>
     </row>
-    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>526</v>
       </c>
@@ -10808,7 +13477,7 @@
         <v/>
       </c>
     </row>
-    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>526</v>
       </c>
@@ -10839,7 +13508,7 @@
         <v>1.44874879448203E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>528</v>
       </c>
@@ -10870,7 +13539,7 @@
         <v/>
       </c>
     </row>
-    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>528</v>
       </c>
@@ -10901,7 +13570,7 @@
         <v>0.416027103939138</v>
       </c>
     </row>
-    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>517</v>
       </c>
@@ -10932,7 +13601,7 @@
         <v/>
       </c>
     </row>
-    <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>517</v>
       </c>
@@ -10963,7 +13632,7 @@
         <v>1.6783241797977098E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>470</v>
       </c>
@@ -10994,7 +13663,7 @@
         <v/>
       </c>
     </row>
-    <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>470</v>
       </c>
@@ -11025,7 +13694,7 @@
         <v>5.1792668112842499E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>456</v>
       </c>
@@ -11056,7 +13725,7 @@
         <v/>
       </c>
     </row>
-    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>456</v>
       </c>
@@ -11087,7 +13756,7 @@
         <v>9.8400096349725102E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>531</v>
       </c>
@@ -11118,7 +13787,7 @@
         <v/>
       </c>
     </row>
-    <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>531</v>
       </c>
@@ -11149,7 +13818,7 @@
         <v>3.3080785145229701E-3</v>
       </c>
     </row>
-    <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>532</v>
       </c>
@@ -11180,7 +13849,7 @@
         <v/>
       </c>
     </row>
-    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>532</v>
       </c>
@@ -11211,7 +13880,7 @@
         <v>1.7102637677398801E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>534</v>
       </c>
@@ -11242,7 +13911,7 @@
         <v/>
       </c>
     </row>
-    <row r="143" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>534</v>
       </c>
@@ -11273,7 +13942,7 @@
         <v>0.58798492378849398</v>
       </c>
     </row>
-    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>534</v>
       </c>
@@ -11304,7 +13973,7 @@
         <v/>
       </c>
     </row>
-    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>534</v>
       </c>
@@ -11335,7 +14004,7 @@
         <v>0.39987859793346597</v>
       </c>
     </row>
-    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>536</v>
       </c>
@@ -11366,7 +14035,7 @@
         <v/>
       </c>
     </row>
-    <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>536</v>
       </c>
@@ -11397,7 +14066,7 @@
         <v>0.55838560369967105</v>
       </c>
     </row>
-    <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>537</v>
       </c>
@@ -11428,7 +14097,7 @@
         <v/>
       </c>
     </row>
-    <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>537</v>
       </c>
@@ -11459,7 +14128,7 @@
         <v>0.43028429512844102</v>
       </c>
     </row>
-    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>539</v>
       </c>
@@ -11490,7 +14159,7 @@
         <v/>
       </c>
     </row>
-    <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>539</v>
       </c>
@@ -11521,7 +14190,7 @@
         <v>0.41842340341522499</v>
       </c>
     </row>
-    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>539</v>
       </c>
@@ -11552,7 +14221,7 @@
         <v/>
       </c>
     </row>
-    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>539</v>
       </c>
@@ -11583,7 +14252,7 @@
         <v>0.30926333217565799</v>
       </c>
     </row>
-    <row r="154" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>478</v>
       </c>
@@ -11614,7 +14283,7 @@
         <v/>
       </c>
     </row>
-    <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>478</v>
       </c>
@@ -11645,7 +14314,7 @@
         <v>5.48176435983227E-3</v>
       </c>
     </row>
-    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>543</v>
       </c>
@@ -11676,7 +14345,7 @@
         <v/>
       </c>
     </row>
-    <row r="157" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>543</v>
       </c>
@@ -11707,7 +14376,7 @@
         <v>3.04480479664237E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>545</v>
       </c>
@@ -11738,7 +14407,7 @@
         <v/>
       </c>
     </row>
-    <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>545</v>
       </c>
@@ -11769,7 +14438,7 @@
         <v>4.1765791906158797E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>452</v>
       </c>
@@ -11800,7 +14469,7 @@
         <v/>
       </c>
     </row>
-    <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>452</v>
       </c>
@@ -11831,7 +14500,7 @@
         <v>7.5620372217818393E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>454</v>
       </c>
@@ -11862,7 +14531,7 @@
         <v/>
       </c>
     </row>
-    <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>454</v>
       </c>
@@ -11893,7 +14562,7 @@
         <v>3.5186627898693999E-2</v>
       </c>
     </row>
-    <row r="164" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>434</v>
       </c>
@@ -11924,7 +14593,7 @@
         <v/>
       </c>
     </row>
-    <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>434</v>
       </c>
@@ -11955,7 +14624,7 @@
         <v>2.6849628799169099E-2</v>
       </c>
     </row>
-    <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>517</v>
       </c>
@@ -11986,7 +14655,7 @@
         <v/>
       </c>
     </row>
-    <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>517</v>
       </c>
@@ -12017,7 +14686,7 @@
         <v>0.355941553279425</v>
       </c>
     </row>
-    <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>462</v>
       </c>
@@ -12048,7 +14717,7 @@
         <v/>
       </c>
     </row>
-    <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>462</v>
       </c>
@@ -12079,7 +14748,7 @@
         <v>-2.5680819914275499E-4</v>
       </c>
     </row>
-    <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>470</v>
       </c>
@@ -12110,7 +14779,7 @@
         <v/>
       </c>
     </row>
-    <row r="171" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>470</v>
       </c>
@@ -12141,7 +14810,7 @@
         <v>2.6240202684572701E-2</v>
       </c>
     </row>
-    <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>521</v>
       </c>
@@ -12172,7 +14841,7 @@
         <v/>
       </c>
     </row>
-    <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>521</v>
       </c>
@@ -12203,7 +14872,7 @@
         <v>4.0963546984831699E-2</v>
       </c>
     </row>
-    <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>452</v>
       </c>
@@ -12234,7 +14903,7 @@
         <v/>
       </c>
     </row>
-    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>452</v>
       </c>
@@ -12265,7 +14934,7 @@
         <v>6.2759110242531002E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>551</v>
       </c>
@@ -12296,7 +14965,7 @@
         <v/>
       </c>
     </row>
-    <row r="177" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>551</v>
       </c>
@@ -12327,7 +14996,7 @@
         <v>6.4999012021411104E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>539</v>
       </c>
@@ -12358,7 +15027,7 @@
         <v/>
       </c>
     </row>
-    <row r="179" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>539</v>
       </c>
@@ -12389,7 +15058,7 @@
         <v>0.18653785671464901</v>
       </c>
     </row>
-    <row r="180" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>493</v>
       </c>
@@ -12420,7 +15089,7 @@
         <v/>
       </c>
     </row>
-    <row r="181" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>493</v>
       </c>
@@ -12451,7 +15120,7 @@
         <v>7.1986655582303202E-2</v>
       </c>
     </row>
-    <row r="182" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>490</v>
       </c>
@@ -12482,7 +15151,7 @@
         <v/>
       </c>
     </row>
-    <row r="183" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>490</v>
       </c>
@@ -12513,7 +15182,7 @@
         <v>3.8682633333333598E-2</v>
       </c>
     </row>
-    <row r="184" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>481</v>
       </c>
@@ -12544,7 +15213,7 @@
         <v/>
       </c>
     </row>
-    <row r="185" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>481</v>
       </c>
@@ -12575,7 +15244,7 @@
         <v>0.28680073810968898</v>
       </c>
     </row>
-    <row r="186" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>434</v>
       </c>
@@ -12606,7 +15275,7 @@
         <v/>
       </c>
     </row>
-    <row r="187" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>434</v>
       </c>
@@ -12637,7 +15306,7 @@
         <v>0.110678278964163</v>
       </c>
     </row>
-    <row r="188" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>436</v>
       </c>
@@ -12668,7 +15337,7 @@
         <v/>
       </c>
     </row>
-    <row r="189" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>436</v>
       </c>
@@ -12699,7 +15368,7 @@
         <v>0.188420466308547</v>
       </c>
     </row>
-    <row r="190" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>476</v>
       </c>
@@ -12730,7 +15399,7 @@
         <v/>
       </c>
     </row>
-    <row r="191" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>476</v>
       </c>
@@ -12761,7 +15430,7 @@
         <v>0.38515594984394502</v>
       </c>
     </row>
-    <row r="192" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>446</v>
       </c>
@@ -12792,7 +15461,7 @@
         <v/>
       </c>
     </row>
-    <row r="193" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>446</v>
       </c>
@@ -12823,7 +15492,7 @@
         <v>0.211473049388856</v>
       </c>
     </row>
-    <row r="194" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>560</v>
       </c>
@@ -12854,7 +15523,7 @@
         <v/>
       </c>
     </row>
-    <row r="195" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>560</v>
       </c>
@@ -12885,7 +15554,7 @@
         <v>0.23534911820118801</v>
       </c>
     </row>
-    <row r="196" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>498</v>
       </c>
@@ -12916,7 +15585,7 @@
         <v/>
       </c>
     </row>
-    <row r="197" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>498</v>
       </c>
@@ -12947,7 +15616,7 @@
         <v>0.21380080881182301</v>
       </c>
     </row>
-    <row r="198" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>466</v>
       </c>
@@ -12978,7 +15647,7 @@
         <v/>
       </c>
     </row>
-    <row r="199" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>466</v>
       </c>
@@ -13009,7 +15678,7 @@
         <v>1.07306569001925E-2</v>
       </c>
     </row>
-    <row r="200" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>493</v>
       </c>
@@ -13040,7 +15709,7 @@
         <v/>
       </c>
     </row>
-    <row r="201" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>493</v>
       </c>
@@ -13071,7 +15740,7 @@
         <v>0.15036803508378199</v>
       </c>
     </row>
-    <row r="202" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>498</v>
       </c>
@@ -13102,7 +15771,7 @@
         <v/>
       </c>
     </row>
-    <row r="203" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>498</v>
       </c>
@@ -13133,7 +15802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>521</v>
       </c>
@@ -13164,7 +15833,7 @@
         <v/>
       </c>
     </row>
-    <row r="205" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>521</v>
       </c>
@@ -13257,7 +15926,7 @@
         <v>0.23909198639231699</v>
       </c>
     </row>
-    <row r="208" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>568</v>
       </c>
@@ -13288,7 +15957,7 @@
         <v/>
       </c>
     </row>
-    <row r="209" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>568</v>
       </c>
@@ -13319,7 +15988,7 @@
         <v>3.0992665161142501E-2</v>
       </c>
     </row>
-    <row r="210" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>528</v>
       </c>
@@ -13350,7 +16019,7 @@
         <v/>
       </c>
     </row>
-    <row r="211" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>528</v>
       </c>
@@ -13381,7 +16050,7 @@
         <v>0.130026530649588</v>
       </c>
     </row>
-    <row r="212" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>462</v>
       </c>
@@ -13412,7 +16081,7 @@
         <v/>
       </c>
     </row>
-    <row r="213" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>462</v>
       </c>
@@ -13443,7 +16112,7 @@
         <v>5.1530792268256902E-2</v>
       </c>
     </row>
-    <row r="214" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>571</v>
       </c>
@@ -13474,7 +16143,7 @@
         <v/>
       </c>
     </row>
-    <row r="215" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>571</v>
       </c>
@@ -13505,7 +16174,7 @@
         <v>0.57149312993527801</v>
       </c>
     </row>
-    <row r="216" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>469</v>
       </c>
@@ -13536,7 +16205,7 @@
         <v/>
       </c>
     </row>
-    <row r="217" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>469</v>
       </c>
@@ -13567,7 +16236,7 @@
         <v>0.70533864010587</v>
       </c>
     </row>
-    <row r="218" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>571</v>
       </c>
@@ -13598,7 +16267,7 @@
         <v/>
       </c>
     </row>
-    <row r="219" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>571</v>
       </c>
@@ -13629,7 +16298,7 @@
         <v>4.68749700076748E-2</v>
       </c>
     </row>
-    <row r="220" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>498</v>
       </c>
@@ -13660,7 +16329,7 @@
         <v/>
       </c>
     </row>
-    <row r="221" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>498</v>
       </c>
@@ -13691,7 +16360,7 @@
         <v>2.7123883002756002E-2</v>
       </c>
     </row>
-    <row r="222" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>469</v>
       </c>
@@ -13722,7 +16391,7 @@
         <v/>
       </c>
     </row>
-    <row r="223" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>469</v>
       </c>
@@ -13753,7 +16422,7 @@
         <v>0.1071652582</v>
       </c>
     </row>
-    <row r="224" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>458</v>
       </c>
@@ -13784,7 +16453,7 @@
         <v/>
       </c>
     </row>
-    <row r="225" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>458</v>
       </c>
@@ -13815,7 +16484,7 @@
         <v>0.61153601932037305</v>
       </c>
     </row>
-    <row r="226" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>466</v>
       </c>
@@ -13846,7 +16515,7 @@
         <v/>
       </c>
     </row>
-    <row r="227" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>466</v>
       </c>
@@ -13877,7 +16546,7 @@
         <v>4.3099879226907001E-2</v>
       </c>
     </row>
-    <row r="228" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>498</v>
       </c>
@@ -13908,7 +16577,7 @@
         <v/>
       </c>
     </row>
-    <row r="229" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>498</v>
       </c>
@@ -13939,7 +16608,7 @@
         <v>0.11765659582571</v>
       </c>
     </row>
-    <row r="230" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>577</v>
       </c>
@@ -13970,7 +16639,7 @@
         <v/>
       </c>
     </row>
-    <row r="231" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>577</v>
       </c>
@@ -14001,7 +16670,7 @@
         <v>5.2474628107678598E-2</v>
       </c>
     </row>
-    <row r="232" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>517</v>
       </c>
@@ -14032,7 +16701,7 @@
         <v/>
       </c>
     </row>
-    <row r="233" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>517</v>
       </c>
@@ -14063,7 +16732,7 @@
         <v>0.59978934427637398</v>
       </c>
     </row>
-    <row r="234" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>434</v>
       </c>
@@ -14094,7 +16763,7 @@
         <v/>
       </c>
     </row>
-    <row r="235" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>434</v>
       </c>
@@ -14125,7 +16794,7 @@
         <v>0.16893761177698399</v>
       </c>
     </row>
-    <row r="236" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>579</v>
       </c>
@@ -14156,7 +16825,7 @@
         <v/>
       </c>
     </row>
-    <row r="237" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>579</v>
       </c>
@@ -14187,7 +16856,7 @@
         <v>0.45653065194964898</v>
       </c>
     </row>
-    <row r="238" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>454</v>
       </c>
@@ -14218,7 +16887,7 @@
         <v/>
       </c>
     </row>
-    <row r="239" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>454</v>
       </c>
@@ -14249,7 +16918,7 @@
         <v>8.6365322361737398E-2</v>
       </c>
     </row>
-    <row r="240" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>537</v>
       </c>
@@ -14280,7 +16949,7 @@
         <v/>
       </c>
     </row>
-    <row r="241" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>537</v>
       </c>
@@ -14311,7 +16980,7 @@
         <v>0.65899250476194204</v>
       </c>
     </row>
-    <row r="242" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>483</v>
       </c>
@@ -14342,7 +17011,7 @@
         <v/>
       </c>
     </row>
-    <row r="243" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>483</v>
       </c>
@@ -14373,7 +17042,7 @@
         <v>7.3751994890095304E-2</v>
       </c>
     </row>
-    <row r="244" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>539</v>
       </c>
@@ -14404,7 +17073,7 @@
         <v/>
       </c>
     </row>
-    <row r="245" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>539</v>
       </c>
@@ -14435,7 +17104,7 @@
         <v>8.8617630880681794E-3</v>
       </c>
     </row>
-    <row r="246" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>526</v>
       </c>
@@ -14466,7 +17135,7 @@
         <v/>
       </c>
     </row>
-    <row r="247" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>526</v>
       </c>
@@ -14497,7 +17166,7 @@
         <v>5.5515952844511697E-2</v>
       </c>
     </row>
-    <row r="248" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>490</v>
       </c>
@@ -14528,7 +17197,7 @@
         <v/>
       </c>
     </row>
-    <row r="249" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>490</v>
       </c>
@@ -14621,7 +17290,7 @@
         <v>4.2188844065325297E-2</v>
       </c>
     </row>
-    <row r="252" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>436</v>
       </c>
@@ -14652,7 +17321,7 @@
         <v/>
       </c>
     </row>
-    <row r="253" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>436</v>
       </c>
@@ -14683,7 +17352,7 @@
         <v>6.6592991379887306E-2</v>
       </c>
     </row>
-    <row r="254" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>577</v>
       </c>
@@ -14714,7 +17383,7 @@
         <v/>
       </c>
     </row>
-    <row r="255" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>577</v>
       </c>
@@ -14745,7 +17414,7 @@
         <v>2.0317865311469001E-2</v>
       </c>
     </row>
-    <row r="256" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>587</v>
       </c>
@@ -14776,7 +17445,7 @@
         <v/>
       </c>
     </row>
-    <row r="257" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>587</v>
       </c>
@@ -14807,7 +17476,7 @@
         <v>9.3884916837162602E-2</v>
       </c>
     </row>
-    <row r="258" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>452</v>
       </c>
@@ -14838,7 +17507,7 @@
         <v/>
       </c>
     </row>
-    <row r="259" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>452</v>
       </c>
@@ -14869,7 +17538,7 @@
         <v>-1.15858580100325E-3</v>
       </c>
     </row>
-    <row r="260" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>462</v>
       </c>
@@ -14900,7 +17569,7 @@
         <v/>
       </c>
     </row>
-    <row r="261" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>462</v>
       </c>
@@ -14931,7 +17600,7 @@
         <v>0.123942465209907</v>
       </c>
     </row>
-    <row r="262" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>589</v>
       </c>
@@ -14962,7 +17631,7 @@
         <v/>
       </c>
     </row>
-    <row r="263" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>589</v>
       </c>
@@ -14993,7 +17662,7 @@
         <v>0.113529067792527</v>
       </c>
     </row>
-    <row r="264" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>469</v>
       </c>
@@ -15024,7 +17693,7 @@
         <v/>
       </c>
     </row>
-    <row r="265" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>469</v>
       </c>
@@ -15055,7 +17724,7 @@
         <v>0.10637966646892701</v>
       </c>
     </row>
-    <row r="266" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>487</v>
       </c>
@@ -15086,7 +17755,7 @@
         <v/>
       </c>
     </row>
-    <row r="267" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>487</v>
       </c>
@@ -15117,7 +17786,7 @@
         <v>0.17774508885633999</v>
       </c>
     </row>
-    <row r="268" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>470</v>
       </c>
@@ -15148,7 +17817,7 @@
         <v/>
       </c>
     </row>
-    <row r="269" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>470</v>
       </c>
@@ -15179,7 +17848,7 @@
         <v>9.4199403423891201E-2</v>
       </c>
     </row>
-    <row r="270" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>524</v>
       </c>
@@ -15210,7 +17879,7 @@
         <v/>
       </c>
     </row>
-    <row r="271" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>524</v>
       </c>
@@ -15241,7 +17910,7 @@
         <v>0.10948156274791</v>
       </c>
     </row>
-    <row r="272" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>476</v>
       </c>
@@ -15272,7 +17941,7 @@
         <v/>
       </c>
     </row>
-    <row r="273" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>476</v>
       </c>
@@ -15303,7 +17972,7 @@
         <v>3.2244823452726702E-2</v>
       </c>
     </row>
-    <row r="274" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>593</v>
       </c>
@@ -15334,7 +18003,7 @@
         <v/>
       </c>
     </row>
-    <row r="275" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>593</v>
       </c>
@@ -15365,7 +18034,7 @@
         <v>4.9986709328073899E-2</v>
       </c>
     </row>
-    <row r="276" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>436</v>
       </c>
@@ -15396,7 +18065,7 @@
         <v/>
       </c>
     </row>
-    <row r="277" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>436</v>
       </c>
@@ -15427,7 +18096,7 @@
         <v>0.52177507396368705</v>
       </c>
     </row>
-    <row r="278" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>506</v>
       </c>
@@ -15458,7 +18127,7 @@
         <v/>
       </c>
     </row>
-    <row r="279" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>506</v>
       </c>
@@ -15489,7 +18158,7 @@
         <v>1.9229471291460999E-2</v>
       </c>
     </row>
-    <row r="280" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>534</v>
       </c>
@@ -15520,7 +18189,7 @@
         <v/>
       </c>
     </row>
-    <row r="281" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>534</v>
       </c>
@@ -15551,7 +18220,7 @@
         <v>0.44525370559726901</v>
       </c>
     </row>
-    <row r="282" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>436</v>
       </c>
@@ -15582,7 +18251,7 @@
         <v/>
       </c>
     </row>
-    <row r="283" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>436</v>
       </c>
@@ -15613,7 +18282,7 @@
         <v>6.3098186519781801E-2</v>
       </c>
     </row>
-    <row r="284" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>522</v>
       </c>
@@ -15644,7 +18313,7 @@
         <v/>
       </c>
     </row>
-    <row r="285" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>522</v>
       </c>
@@ -15675,7 +18344,7 @@
         <v>0.15796651878130999</v>
       </c>
     </row>
-    <row r="286" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>577</v>
       </c>
@@ -15706,7 +18375,7 @@
         <v/>
       </c>
     </row>
-    <row r="287" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>577</v>
       </c>
@@ -15737,7 +18406,7 @@
         <v>0.371092366993859</v>
       </c>
     </row>
-    <row r="288" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>478</v>
       </c>
@@ -15768,7 +18437,7 @@
         <v/>
       </c>
     </row>
-    <row r="289" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>478</v>
       </c>
@@ -15799,7 +18468,7 @@
         <v>5.8596298502659003E-2</v>
       </c>
     </row>
-    <row r="290" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>597</v>
       </c>
@@ -15830,7 +18499,7 @@
         <v/>
       </c>
     </row>
-    <row r="291" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>597</v>
       </c>
@@ -15861,7 +18530,7 @@
         <v>0.205364056456941</v>
       </c>
     </row>
-    <row r="292" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>598</v>
       </c>
@@ -15892,7 +18561,7 @@
         <v/>
       </c>
     </row>
-    <row r="293" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>598</v>
       </c>
@@ -15923,7 +18592,7 @@
         <v>2.1930018015920299E-2</v>
       </c>
     </row>
-    <row r="294" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>599</v>
       </c>
@@ -15954,7 +18623,7 @@
         <v/>
       </c>
     </row>
-    <row r="295" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>599</v>
       </c>
@@ -15985,7 +18654,7 @@
         <v>8.3364020607327102E-3</v>
       </c>
     </row>
-    <row r="296" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>600</v>
       </c>
@@ -16016,7 +18685,7 @@
         <v/>
       </c>
     </row>
-    <row r="297" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>600</v>
       </c>
@@ -16047,7 +18716,7 @@
         <v>8.0115448954193202E-2</v>
       </c>
     </row>
-    <row r="298" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>602</v>
       </c>
@@ -16078,7 +18747,7 @@
         <v/>
       </c>
     </row>
-    <row r="299" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>602</v>
       </c>
@@ -16109,7 +18778,7 @@
         <v>0.13275643253366601</v>
       </c>
     </row>
-    <row r="300" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>456</v>
       </c>
@@ -16140,7 +18809,7 @@
         <v/>
       </c>
     </row>
-    <row r="301" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>456</v>
       </c>
@@ -16171,7 +18840,7 @@
         <v>0.69001096410876195</v>
       </c>
     </row>
-    <row r="302" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>597</v>
       </c>
@@ -16202,7 +18871,7 @@
         <v/>
       </c>
     </row>
-    <row r="303" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>597</v>
       </c>
@@ -16233,7 +18902,7 @@
         <v>0.166208864653697</v>
       </c>
     </row>
-    <row r="304" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>462</v>
       </c>
@@ -16264,7 +18933,7 @@
         <v/>
       </c>
     </row>
-    <row r="305" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>462</v>
       </c>
@@ -16295,7 +18964,7 @@
         <v>0.67661330354522797</v>
       </c>
     </row>
-    <row r="306" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>452</v>
       </c>
@@ -16326,7 +18995,7 @@
         <v/>
       </c>
     </row>
-    <row r="307" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>452</v>
       </c>
@@ -16357,7 +19026,7 @@
         <v>5.0588160588401702E-2</v>
       </c>
     </row>
-    <row r="308" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>517</v>
       </c>
@@ -16388,7 +19057,7 @@
         <v/>
       </c>
     </row>
-    <row r="309" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>517</v>
       </c>
@@ -16419,7 +19088,7 @@
         <v>2.16531439841601E-2</v>
       </c>
     </row>
-    <row r="310" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>606</v>
       </c>
@@ -16450,7 +19119,7 @@
         <v/>
       </c>
     </row>
-    <row r="311" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>606</v>
       </c>
@@ -16481,7 +19150,7 @@
         <v>1.5858144408732401E-3</v>
       </c>
     </row>
-    <row r="312" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>450</v>
       </c>
@@ -16512,7 +19181,7 @@
         <v/>
       </c>
     </row>
-    <row r="313" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>450</v>
       </c>
@@ -16543,7 +19212,7 @@
         <v>7.8831570908862503E-2</v>
       </c>
     </row>
-    <row r="314" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>607</v>
       </c>
@@ -16574,7 +19243,7 @@
         <v/>
       </c>
     </row>
-    <row r="315" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>607</v>
       </c>
@@ -16605,7 +19274,7 @@
         <v>0.51881491097064603</v>
       </c>
     </row>
-    <row r="316" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>608</v>
       </c>
@@ -16636,7 +19305,7 @@
         <v/>
       </c>
     </row>
-    <row r="317" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>608</v>
       </c>
@@ -16667,7 +19336,7 @@
         <v>1.15308143563913E-2</v>
       </c>
     </row>
-    <row r="318" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>598</v>
       </c>
@@ -16698,7 +19367,7 @@
         <v/>
       </c>
     </row>
-    <row r="319" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>598</v>
       </c>
@@ -16729,7 +19398,7 @@
         <v>0.43771448368660698</v>
       </c>
     </row>
-    <row r="320" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>610</v>
       </c>
@@ -16760,7 +19429,7 @@
         <v/>
       </c>
     </row>
-    <row r="321" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>610</v>
       </c>
@@ -16791,7 +19460,7 @@
         <v>1.8954500525621198E-2</v>
       </c>
     </row>
-    <row r="322" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>522</v>
       </c>
@@ -16822,7 +19491,7 @@
         <v/>
       </c>
     </row>
-    <row r="323" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>522</v>
       </c>
@@ -16853,7 +19522,7 @@
         <v>7.4083236229407406E-2</v>
       </c>
     </row>
-    <row r="324" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>593</v>
       </c>
@@ -16884,7 +19553,7 @@
         <v/>
       </c>
     </row>
-    <row r="325" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>593</v>
       </c>
@@ -16915,7 +19584,7 @@
         <v>0.108631090986502</v>
       </c>
     </row>
-    <row r="326" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>472</v>
       </c>
@@ -16946,7 +19615,7 @@
         <v/>
       </c>
     </row>
-    <row r="327" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>472</v>
       </c>
@@ -16977,7 +19646,7 @@
         <v>0.68167038704932104</v>
       </c>
     </row>
-    <row r="328" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>452</v>
       </c>
@@ -17008,7 +19677,7 @@
         <v/>
       </c>
     </row>
-    <row r="329" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>452</v>
       </c>
@@ -17039,7 +19708,7 @@
         <v>1.1521118551088901E-2</v>
       </c>
     </row>
-    <row r="330" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>466</v>
       </c>
@@ -17070,7 +19739,7 @@
         <v/>
       </c>
     </row>
-    <row r="331" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>466</v>
       </c>
@@ -17101,7 +19770,7 @@
         <v>5.3155631462331598E-4</v>
       </c>
     </row>
-    <row r="332" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>440</v>
       </c>
@@ -17132,7 +19801,7 @@
         <v/>
       </c>
     </row>
-    <row r="333" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>440</v>
       </c>
@@ -17163,7 +19832,7 @@
         <v>7.1610149383338803E-2</v>
       </c>
     </row>
-    <row r="334" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>490</v>
       </c>
@@ -17194,7 +19863,7 @@
         <v/>
       </c>
     </row>
-    <row r="335" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>490</v>
       </c>
@@ -17225,7 +19894,7 @@
         <v>0.128880627979644</v>
       </c>
     </row>
-    <row r="336" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>470</v>
       </c>
@@ -17256,7 +19925,7 @@
         <v/>
       </c>
     </row>
-    <row r="337" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>470</v>
       </c>
@@ -17287,7 +19956,7 @@
         <v>2.4171206080082198E-2</v>
       </c>
     </row>
-    <row r="338" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>589</v>
       </c>
@@ -17318,7 +19987,7 @@
         <v/>
       </c>
     </row>
-    <row r="339" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>589</v>
       </c>
@@ -17349,7 +20018,7 @@
         <v>0.184882821131896</v>
       </c>
     </row>
-    <row r="340" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>593</v>
       </c>
@@ -17380,7 +20049,7 @@
         <v/>
       </c>
     </row>
-    <row r="341" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>593</v>
       </c>
@@ -17411,7 +20080,7 @@
         <v>0.130491807883063</v>
       </c>
     </row>
-    <row r="342" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>593</v>
       </c>
@@ -17442,7 +20111,7 @@
         <v/>
       </c>
     </row>
-    <row r="343" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>593</v>
       </c>
@@ -17473,7 +20142,7 @@
         <v>3.6297424415627402E-2</v>
       </c>
     </row>
-    <row r="344" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>531</v>
       </c>
@@ -17504,7 +20173,7 @@
         <v/>
       </c>
     </row>
-    <row r="345" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>531</v>
       </c>
@@ -17535,7 +20204,7 @@
         <v>8.1685409893697797E-2</v>
       </c>
     </row>
-    <row r="346" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>458</v>
       </c>
@@ -17566,7 +20235,7 @@
         <v/>
       </c>
     </row>
-    <row r="347" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>458</v>
       </c>
@@ -17597,7 +20266,7 @@
         <v>0.75155006301221505</v>
       </c>
     </row>
-    <row r="348" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>602</v>
       </c>
@@ -17628,7 +20297,7 @@
         <v/>
       </c>
     </row>
-    <row r="349" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>602</v>
       </c>
@@ -17659,7 +20328,7 @@
         <v>-3.1680780044101201E-2</v>
       </c>
     </row>
-    <row r="350" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>616</v>
       </c>
@@ -17690,7 +20359,7 @@
         <v/>
       </c>
     </row>
-    <row r="351" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>616</v>
       </c>
@@ -17721,7 +20390,7 @@
         <v>8.1523655507217005E-2</v>
       </c>
     </row>
-    <row r="352" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>534</v>
       </c>
@@ -17752,7 +20421,7 @@
         <v/>
       </c>
     </row>
-    <row r="353" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>534</v>
       </c>
@@ -17783,7 +20452,7 @@
         <v>9.3750770151155793E-2</v>
       </c>
     </row>
-    <row r="354" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>618</v>
       </c>
@@ -17814,7 +20483,7 @@
         <v/>
       </c>
     </row>
-    <row r="355" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>618</v>
       </c>
@@ -17845,7 +20514,7 @@
         <v>0.13354317291930101</v>
       </c>
     </row>
-    <row r="356" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>620</v>
       </c>
@@ -17876,7 +20545,7 @@
         <v/>
       </c>
     </row>
-    <row r="357" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>620</v>
       </c>
@@ -17907,7 +20576,7 @@
         <v>0.35427599265896997</v>
       </c>
     </row>
-    <row r="358" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>621</v>
       </c>
@@ -17938,7 +20607,7 @@
         <v/>
       </c>
     </row>
-    <row r="359" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>621</v>
       </c>
@@ -17969,7 +20638,7 @@
         <v>8.9359223606093496E-2</v>
       </c>
     </row>
-    <row r="360" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>620</v>
       </c>
@@ -18000,7 +20669,7 @@
         <v/>
       </c>
     </row>
-    <row r="361" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>620</v>
       </c>
@@ -18031,7 +20700,7 @@
         <v>3.4794722276591097E-2</v>
       </c>
     </row>
-    <row r="362" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>524</v>
       </c>
@@ -18062,7 +20731,7 @@
         <v/>
       </c>
     </row>
-    <row r="363" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>524</v>
       </c>
@@ -18093,7 +20762,7 @@
         <v>2.18353269949315E-2</v>
       </c>
     </row>
-    <row r="364" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>472</v>
       </c>
@@ -18124,7 +20793,7 @@
         <v/>
       </c>
     </row>
-    <row r="365" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>472</v>
       </c>
@@ -18155,7 +20824,7 @@
         <v>0.14652791223922301</v>
       </c>
     </row>
-    <row r="366" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>577</v>
       </c>
@@ -18186,7 +20855,7 @@
         <v/>
       </c>
     </row>
-    <row r="367" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>577</v>
       </c>
@@ -18217,7 +20886,7 @@
         <v>-4.8360876389221801E-3</v>
       </c>
     </row>
-    <row r="368" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>537</v>
       </c>
@@ -18248,7 +20917,7 @@
         <v/>
       </c>
     </row>
-    <row r="369" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>537</v>
       </c>
@@ -18279,7 +20948,7 @@
         <v>4.5800836094280699E-2</v>
       </c>
     </row>
-    <row r="370" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>624</v>
       </c>
@@ -18310,7 +20979,7 @@
         <v/>
       </c>
     </row>
-    <row r="371" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>624</v>
       </c>
@@ -18341,7 +21010,7 @@
         <v>0.66394342754951896</v>
       </c>
     </row>
-    <row r="372" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>454</v>
       </c>
@@ -18372,7 +21041,7 @@
         <v/>
       </c>
     </row>
-    <row r="373" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>454</v>
       </c>
@@ -18403,7 +21072,7 @@
         <v>4.9111154553401697E-2</v>
       </c>
     </row>
-    <row r="374" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>478</v>
       </c>
@@ -18434,7 +21103,7 @@
         <v/>
       </c>
     </row>
-    <row r="375" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>478</v>
       </c>
@@ -18465,7 +21134,7 @@
         <v>4.5773647198437503E-2</v>
       </c>
     </row>
-    <row r="376" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>450</v>
       </c>
@@ -18496,7 +21165,7 @@
         <v/>
       </c>
     </row>
-    <row r="377" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>450</v>
       </c>
@@ -18527,7 +21196,7 @@
         <v>0.74752073406099595</v>
       </c>
     </row>
-    <row r="378" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>452</v>
       </c>
@@ -18558,7 +21227,7 @@
         <v/>
       </c>
     </row>
-    <row r="379" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>452</v>
       </c>
@@ -18589,7 +21258,7 @@
         <v>9.2744930044196899E-2</v>
       </c>
     </row>
-    <row r="380" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>454</v>
       </c>
@@ -18620,7 +21289,7 @@
         <v/>
       </c>
     </row>
-    <row r="381" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>454</v>
       </c>
@@ -18651,7 +21320,7 @@
         <v>2.84513981702877E-2</v>
       </c>
     </row>
-    <row r="382" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>476</v>
       </c>
@@ -18682,7 +21351,7 @@
         <v/>
       </c>
     </row>
-    <row r="383" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>476</v>
       </c>
@@ -18713,7 +21382,7 @@
         <v>0.112208189526129</v>
       </c>
     </row>
-    <row r="384" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>593</v>
       </c>
@@ -18744,7 +21413,7 @@
         <v/>
       </c>
     </row>
-    <row r="385" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>593</v>
       </c>
@@ -18775,7 +21444,7 @@
         <v>0.11740285497193299</v>
       </c>
     </row>
-    <row r="386" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>436</v>
       </c>
@@ -18806,7 +21475,7 @@
         <v/>
       </c>
     </row>
-    <row r="387" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>436</v>
       </c>
@@ -18837,7 +21506,7 @@
         <v>3.5372111666611999E-2</v>
       </c>
     </row>
-    <row r="388" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>493</v>
       </c>
@@ -18868,7 +21537,7 @@
         <v/>
       </c>
     </row>
-    <row r="389" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>493</v>
       </c>
@@ -18899,7 +21568,7 @@
         <v>0.34750397544992301</v>
       </c>
     </row>
-    <row r="390" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>478</v>
       </c>
@@ -18930,7 +21599,7 @@
         <v/>
       </c>
     </row>
-    <row r="391" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>478</v>
       </c>
@@ -18961,7 +21630,7 @@
         <v>2.2581695121362599E-2</v>
       </c>
     </row>
-    <row r="392" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>438</v>
       </c>
@@ -18992,7 +21661,7 @@
         <v/>
       </c>
     </row>
-    <row r="393" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>438</v>
       </c>
@@ -19023,7 +21692,7 @@
         <v>0.21449039033634801</v>
       </c>
     </row>
-    <row r="394" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>440</v>
       </c>
@@ -19054,7 +21723,7 @@
         <v/>
       </c>
     </row>
-    <row r="395" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>440</v>
       </c>
@@ -19085,7 +21754,7 @@
         <v>5.05503957238796E-2</v>
       </c>
     </row>
-    <row r="396" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>496</v>
       </c>
@@ -19116,7 +21785,7 @@
         <v/>
       </c>
     </row>
-    <row r="397" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>496</v>
       </c>
@@ -19147,7 +21816,7 @@
         <v>0.27475969966599501</v>
       </c>
     </row>
-    <row r="398" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>521</v>
       </c>
@@ -19178,7 +21847,7 @@
         <v/>
       </c>
     </row>
-    <row r="399" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>521</v>
       </c>
@@ -19209,7 +21878,7 @@
         <v>3.7382006191042198E-2</v>
       </c>
     </row>
-    <row r="400" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>460</v>
       </c>
@@ -19240,7 +21909,7 @@
         <v/>
       </c>
     </row>
-    <row r="401" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>460</v>
       </c>
@@ -19271,7 +21940,7 @@
         <v>0.21978639478949299</v>
       </c>
     </row>
-    <row r="402" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>551</v>
       </c>
@@ -19302,7 +21971,7 @@
         <v/>
       </c>
     </row>
-    <row r="403" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>551</v>
       </c>
@@ -19333,7 +22002,7 @@
         <v>6.4237959174690398E-2</v>
       </c>
     </row>
-    <row r="404" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>521</v>
       </c>
@@ -19364,7 +22033,7 @@
         <v/>
       </c>
     </row>
-    <row r="405" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>521</v>
       </c>
@@ -19395,7 +22064,7 @@
         <v>0.115811864448428</v>
       </c>
     </row>
-    <row r="406" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>589</v>
       </c>
@@ -19426,7 +22095,7 @@
         <v/>
       </c>
     </row>
-    <row r="407" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>589</v>
       </c>
@@ -19457,7 +22126,7 @@
         <v>0.683740194691424</v>
       </c>
     </row>
-    <row r="408" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>438</v>
       </c>
@@ -19488,7 +22157,7 @@
         <v/>
       </c>
     </row>
-    <row r="409" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>438</v>
       </c>
@@ -19519,7 +22188,7 @@
         <v>0.50827340852324099</v>
       </c>
     </row>
-    <row r="410" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>598</v>
       </c>
@@ -19550,7 +22219,7 @@
         <v/>
       </c>
     </row>
-    <row r="411" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>598</v>
       </c>
@@ -19581,7 +22250,7 @@
         <v>0.29684070632263099</v>
       </c>
     </row>
-    <row r="412" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>458</v>
       </c>
@@ -19612,7 +22281,7 @@
         <v/>
       </c>
     </row>
-    <row r="413" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>458</v>
       </c>
@@ -19643,7 +22312,7 @@
         <v>2.2492287930367099E-2</v>
       </c>
     </row>
-    <row r="414" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>521</v>
       </c>
@@ -19674,7 +22343,7 @@
         <v/>
       </c>
     </row>
-    <row r="415" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>521</v>
       </c>
@@ -19705,7 +22374,7 @@
         <v>1.4935576742238299E-2</v>
       </c>
     </row>
-    <row r="416" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>476</v>
       </c>
@@ -19736,7 +22405,7 @@
         <v/>
       </c>
     </row>
-    <row r="417" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>476</v>
       </c>
@@ -19767,7 +22436,7 @@
         <v>0.62004052862391601</v>
       </c>
     </row>
-    <row r="418" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>632</v>
       </c>
@@ -19798,7 +22467,7 @@
         <v/>
       </c>
     </row>
-    <row r="419" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>632</v>
       </c>
@@ -19829,7 +22498,7 @@
         <v>9.0057521693490905E-2</v>
       </c>
     </row>
-    <row r="420" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>452</v>
       </c>
@@ -19860,7 +22529,7 @@
         <v/>
       </c>
     </row>
-    <row r="421" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>452</v>
       </c>
@@ -19891,7 +22560,7 @@
         <v>7.3980427133683996E-2</v>
       </c>
     </row>
-    <row r="422" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>446</v>
       </c>
@@ -19922,7 +22591,7 @@
         <v/>
       </c>
     </row>
-    <row r="423" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>446</v>
       </c>
@@ -19953,7 +22622,7 @@
         <v>0.13363049221526199</v>
       </c>
     </row>
-    <row r="424" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J424" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -19963,7 +22632,7 @@
         <v/>
       </c>
     </row>
-    <row r="425" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J425" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -19973,7 +22642,7 @@
         <v/>
       </c>
     </row>
-    <row r="426" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J426" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -19983,7 +22652,7 @@
         <v/>
       </c>
     </row>
-    <row r="427" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J427" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -19993,7 +22662,7 @@
         <v/>
       </c>
     </row>
-    <row r="428" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J428" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -20003,7 +22672,7 @@
         <v/>
       </c>
     </row>
-    <row r="429" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J429" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -20013,7 +22682,7 @@
         <v/>
       </c>
     </row>
-    <row r="430" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J430" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -20023,7 +22692,7 @@
         <v/>
       </c>
     </row>
-    <row r="431" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J431" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -20033,7 +22702,7 @@
         <v/>
       </c>
     </row>
-    <row r="432" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J432" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -20043,7 +22712,7 @@
         <v/>
       </c>
     </row>
-    <row r="433" spans="10:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J433" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -20053,7 +22722,7 @@
         <v/>
       </c>
     </row>
-    <row r="434" spans="10:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J434" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -20063,7 +22732,7 @@
         <v/>
       </c>
     </row>
-    <row r="435" spans="10:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J435" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -20073,7 +22742,7 @@
         <v/>
       </c>
     </row>
-    <row r="436" spans="10:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J436" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -20083,7 +22752,7 @@
         <v/>
       </c>
     </row>
-    <row r="437" spans="10:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J437" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -20093,7 +22762,7 @@
         <v/>
       </c>
     </row>
-    <row r="438" spans="10:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J438" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -20103,7 +22772,7 @@
         <v/>
       </c>
     </row>
-    <row r="439" spans="10:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J439" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -20113,7 +22782,7 @@
         <v/>
       </c>
     </row>
-    <row r="440" spans="10:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J440" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -20123,7 +22792,7 @@
         <v/>
       </c>
     </row>
-    <row r="441" spans="10:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J441" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -20133,7 +22802,7 @@
         <v/>
       </c>
     </row>
-    <row r="442" spans="10:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J442" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -20143,7 +22812,7 @@
         <v/>
       </c>
     </row>
-    <row r="443" spans="10:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J443" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -20153,7 +22822,7 @@
         <v/>
       </c>
     </row>
-    <row r="444" spans="10:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J444" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -20163,7 +22832,7 @@
         <v/>
       </c>
     </row>
-    <row r="445" spans="10:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J445" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -20173,7 +22842,7 @@
         <v/>
       </c>
     </row>
-    <row r="446" spans="10:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J446" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -20183,7 +22852,7 @@
         <v/>
       </c>
     </row>
-    <row r="447" spans="10:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J447" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -20193,7 +22862,7 @@
         <v/>
       </c>
     </row>
-    <row r="448" spans="10:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J448" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -20203,7 +22872,7 @@
         <v/>
       </c>
     </row>
-    <row r="449" spans="10:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J449" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -20214,13 +22883,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K449">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="y_(60,"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:K449"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -20230,7 +22893,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J343"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -20336,6 +23001,13 @@
       <c r="F4">
         <v>0.51943889523327702</v>
       </c>
+      <c r="G4" t="s">
+        <v>635</v>
+      </c>
+      <c r="H4">
+        <f>MEDIAN(J2:J343)</f>
+        <v>0.49557473839365501</v>
+      </c>
       <c r="I4">
         <f t="shared" si="0"/>
         <v>0.51943889523327702</v>
@@ -20363,6 +23035,13 @@
       </c>
       <c r="F5">
         <v>0.51523822222117999</v>
+      </c>
+      <c r="G5" t="s">
+        <v>636</v>
+      </c>
+      <c r="H5">
+        <f>MEDIAN(I2:I343)</f>
+        <v>0.49359426574297699</v>
       </c>
       <c r="I5" t="str">
         <f t="shared" si="0"/>
